--- a/DLP Contnets/Contents01.xlsx
+++ b/DLP Contnets/Contents01.xlsx
@@ -4081,7 +4081,7 @@
     <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="319">
+  <cellXfs count="320">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4669,6 +4669,18 @@
     <xf numFmtId="0" fontId="0" fillId="17" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="63" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4702,15 +4714,39 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4726,30 +4762,6 @@
     <xf numFmtId="0" fontId="3" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4762,48 +4774,69 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="6" fillId="12" borderId="94" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="12" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="12" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="12" borderId="94" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="12" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -4822,28 +4855,19 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="10" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="11" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="40" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="12" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="2" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4870,30 +4894,66 @@
     <xf numFmtId="0" fontId="17" fillId="8" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="77" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="78" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="79" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="90" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="91" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="92" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="66" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="65" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="66" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="65" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="14" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -4921,65 +4981,8 @@
     <xf numFmtId="0" fontId="13" fillId="14" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="77" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="78" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="79" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="90" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="91" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="92" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="65" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="10" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="11" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="2" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="40" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -5388,13 +5391,13 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:7" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="217" t="s">
+      <c r="B2" s="221" t="s">
         <v>652</v>
       </c>
-      <c r="C2" s="217"/>
-      <c r="D2" s="217"/>
-      <c r="E2" s="217"/>
-      <c r="F2" s="217"/>
+      <c r="C2" s="221"/>
+      <c r="D2" s="221"/>
+      <c r="E2" s="221"/>
+      <c r="F2" s="221"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B3" s="48" t="s">
@@ -5406,10 +5409,10 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="215">
+      <c r="A5" s="219">
         <v>1</v>
       </c>
-      <c r="B5" s="221" t="s">
+      <c r="B5" s="225" t="s">
         <v>602</v>
       </c>
       <c r="C5" s="91" t="s">
@@ -5425,8 +5428,8 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="215"/>
-      <c r="B6" s="222"/>
+      <c r="A6" s="219"/>
+      <c r="B6" s="226"/>
       <c r="C6" s="91" t="s">
         <v>80</v>
       </c>
@@ -5440,8 +5443,8 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="215"/>
-      <c r="B7" s="222"/>
+      <c r="A7" s="219"/>
+      <c r="B7" s="226"/>
       <c r="C7" s="91" t="s">
         <v>84</v>
       </c>
@@ -5455,8 +5458,8 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="215"/>
-      <c r="B8" s="222"/>
+      <c r="A8" s="219"/>
+      <c r="B8" s="226"/>
       <c r="C8" s="91" t="s">
         <v>90</v>
       </c>
@@ -5470,8 +5473,8 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="215"/>
-      <c r="B9" s="222"/>
+      <c r="A9" s="219"/>
+      <c r="B9" s="226"/>
       <c r="C9" s="91" t="s">
         <v>97</v>
       </c>
@@ -5485,8 +5488,8 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="215"/>
-      <c r="B10" s="222"/>
+      <c r="A10" s="219"/>
+      <c r="B10" s="226"/>
       <c r="C10" s="91" t="s">
         <v>105</v>
       </c>
@@ -5500,8 +5503,8 @@
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="215"/>
-      <c r="B11" s="222"/>
+      <c r="A11" s="219"/>
+      <c r="B11" s="226"/>
       <c r="C11" s="91" t="s">
         <v>114</v>
       </c>
@@ -5515,8 +5518,8 @@
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="215"/>
-      <c r="B12" s="222"/>
+      <c r="A12" s="219"/>
+      <c r="B12" s="226"/>
       <c r="C12" s="91" t="s">
         <v>119</v>
       </c>
@@ -5530,8 +5533,8 @@
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="215"/>
-      <c r="B13" s="222"/>
+      <c r="A13" s="219"/>
+      <c r="B13" s="226"/>
       <c r="C13" s="91" t="s">
         <v>139</v>
       </c>
@@ -5545,8 +5548,8 @@
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="215"/>
-      <c r="B14" s="222"/>
+      <c r="A14" s="219"/>
+      <c r="B14" s="226"/>
       <c r="C14" s="91" t="s">
         <v>141</v>
       </c>
@@ -5560,8 +5563,8 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="215"/>
-      <c r="B15" s="222"/>
+      <c r="A15" s="219"/>
+      <c r="B15" s="226"/>
       <c r="C15" s="91" t="s">
         <v>143</v>
       </c>
@@ -5575,8 +5578,8 @@
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="215"/>
-      <c r="B16" s="222"/>
+      <c r="A16" s="219"/>
+      <c r="B16" s="226"/>
       <c r="C16" s="91" t="s">
         <v>145</v>
       </c>
@@ -5590,8 +5593,8 @@
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="215"/>
-      <c r="B17" s="222"/>
+      <c r="A17" s="219"/>
+      <c r="B17" s="226"/>
       <c r="C17" s="91" t="s">
         <v>147</v>
       </c>
@@ -5605,8 +5608,8 @@
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="215"/>
-      <c r="B18" s="222"/>
+      <c r="A18" s="219"/>
+      <c r="B18" s="226"/>
       <c r="C18" s="91" t="s">
         <v>149</v>
       </c>
@@ -5620,8 +5623,8 @@
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="215"/>
-      <c r="B19" s="223"/>
+      <c r="A19" s="219"/>
+      <c r="B19" s="227"/>
       <c r="C19" s="91" t="s">
         <v>152</v>
       </c>
@@ -5635,16 +5638,16 @@
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="216">
+      <c r="A20" s="220">
         <v>2</v>
       </c>
-      <c r="B20" s="220" t="s">
+      <c r="B20" s="224" t="s">
         <v>16</v>
       </c>
       <c r="C20" s="91" t="s">
         <v>173</v>
       </c>
-      <c r="D20" s="218" t="s">
+      <c r="D20" s="222" t="s">
         <v>17</v>
       </c>
       <c r="E20" s="49" t="s">
@@ -5656,12 +5659,12 @@
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="216"/>
-      <c r="B21" s="220"/>
+      <c r="A21" s="220"/>
+      <c r="B21" s="224"/>
       <c r="C21" s="91" t="s">
         <v>177</v>
       </c>
-      <c r="D21" s="218"/>
+      <c r="D21" s="222"/>
       <c r="E21" s="49" t="s">
         <v>19</v>
       </c>
@@ -5671,12 +5674,12 @@
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="216"/>
-      <c r="B22" s="220"/>
+      <c r="A22" s="220"/>
+      <c r="B22" s="224"/>
       <c r="C22" s="97" t="s">
         <v>180</v>
       </c>
-      <c r="D22" s="218"/>
+      <c r="D22" s="222"/>
       <c r="E22" s="49" t="s">
         <v>20</v>
       </c>
@@ -5686,15 +5689,15 @@
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="216"/>
-      <c r="B23" s="220"/>
-      <c r="C23" s="224" t="s">
+      <c r="A23" s="220"/>
+      <c r="B23" s="224"/>
+      <c r="C23" s="228" t="s">
         <v>183</v>
       </c>
-      <c r="D23" s="218" t="s">
+      <c r="D23" s="222" t="s">
         <v>21</v>
       </c>
-      <c r="E23" s="219" t="s">
+      <c r="E23" s="223" t="s">
         <v>22</v>
       </c>
       <c r="F23" s="49" t="s">
@@ -5705,11 +5708,11 @@
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="216"/>
-      <c r="B24" s="220"/>
-      <c r="C24" s="225"/>
-      <c r="D24" s="218"/>
-      <c r="E24" s="219"/>
+      <c r="A24" s="220"/>
+      <c r="B24" s="224"/>
+      <c r="C24" s="229"/>
+      <c r="D24" s="222"/>
+      <c r="E24" s="223"/>
       <c r="F24" s="49" t="s">
         <v>24</v>
       </c>
@@ -5718,12 +5721,12 @@
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="216"/>
-      <c r="B25" s="220"/>
+      <c r="A25" s="220"/>
+      <c r="B25" s="224"/>
       <c r="C25" s="97" t="s">
         <v>186</v>
       </c>
-      <c r="D25" s="218"/>
+      <c r="D25" s="222"/>
       <c r="E25" s="49" t="s">
         <v>25</v>
       </c>
@@ -5733,12 +5736,12 @@
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="216"/>
-      <c r="B26" s="220"/>
+      <c r="A26" s="220"/>
+      <c r="B26" s="224"/>
       <c r="C26" s="191" t="s">
         <v>189</v>
       </c>
-      <c r="D26" s="218"/>
+      <c r="D26" s="222"/>
       <c r="E26" s="49" t="s">
         <v>26</v>
       </c>
@@ -5748,12 +5751,12 @@
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="216"/>
-      <c r="B27" s="220"/>
+      <c r="A27" s="220"/>
+      <c r="B27" s="224"/>
       <c r="C27" s="97" t="s">
         <v>193</v>
       </c>
-      <c r="D27" s="218"/>
+      <c r="D27" s="222"/>
       <c r="E27" s="84" t="s">
         <v>27</v>
       </c>
@@ -5805,13 +5808,13 @@
       <c r="D1" s="52"/>
     </row>
     <row r="2" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="281" t="s">
+      <c r="A2" s="289" t="s">
         <v>591</v>
       </c>
-      <c r="B2" s="281"/>
-      <c r="C2" s="281"/>
-      <c r="D2" s="281"/>
-      <c r="E2" s="281"/>
+      <c r="B2" s="289"/>
+      <c r="C2" s="289"/>
+      <c r="D2" s="289"/>
+      <c r="E2" s="289"/>
     </row>
     <row r="3" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="82" t="s">
@@ -5915,45 +5918,45 @@
   <sheetData>
     <row r="1" spans="2:25" ht="72.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:25" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="290" t="s">
+      <c r="B2" s="310" t="s">
         <v>658</v>
       </c>
-      <c r="C2" s="291"/>
-      <c r="D2" s="291"/>
-      <c r="E2" s="291"/>
-      <c r="F2" s="292"/>
+      <c r="C2" s="311"/>
+      <c r="D2" s="311"/>
+      <c r="E2" s="311"/>
+      <c r="F2" s="312"/>
       <c r="G2" s="154" t="s">
         <v>684</v>
       </c>
-      <c r="H2" s="282">
+      <c r="H2" s="308">
         <v>2022</v>
       </c>
-      <c r="I2" s="282"/>
-      <c r="J2" s="282"/>
-      <c r="K2" s="282"/>
-      <c r="L2" s="282"/>
-      <c r="M2" s="282"/>
-      <c r="N2" s="282"/>
-      <c r="O2" s="282"/>
-      <c r="P2" s="282"/>
-      <c r="Q2" s="282"/>
-      <c r="R2" s="282">
+      <c r="I2" s="308"/>
+      <c r="J2" s="308"/>
+      <c r="K2" s="308"/>
+      <c r="L2" s="308"/>
+      <c r="M2" s="308"/>
+      <c r="N2" s="308"/>
+      <c r="O2" s="308"/>
+      <c r="P2" s="308"/>
+      <c r="Q2" s="308"/>
+      <c r="R2" s="308">
         <v>2023</v>
       </c>
-      <c r="S2" s="282"/>
-      <c r="T2" s="282"/>
-      <c r="U2" s="282"/>
-      <c r="V2" s="282"/>
-      <c r="W2" s="282"/>
-      <c r="X2" s="282"/>
-      <c r="Y2" s="282"/>
+      <c r="S2" s="308"/>
+      <c r="T2" s="308"/>
+      <c r="U2" s="308"/>
+      <c r="V2" s="308"/>
+      <c r="W2" s="308"/>
+      <c r="X2" s="308"/>
+      <c r="Y2" s="308"/>
     </row>
     <row r="3" spans="2:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="293"/>
-      <c r="C3" s="294"/>
-      <c r="D3" s="294"/>
-      <c r="E3" s="294"/>
-      <c r="F3" s="295"/>
+      <c r="B3" s="313"/>
+      <c r="C3" s="314"/>
+      <c r="D3" s="314"/>
+      <c r="E3" s="314"/>
+      <c r="F3" s="315"/>
       <c r="G3" s="190" t="s">
         <v>683</v>
       </c>
@@ -6013,11 +6016,11 @@
       </c>
     </row>
     <row r="4" spans="2:25" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="296"/>
-      <c r="C4" s="297"/>
-      <c r="D4" s="297"/>
-      <c r="E4" s="297"/>
-      <c r="F4" s="298"/>
+      <c r="B4" s="316"/>
+      <c r="C4" s="317"/>
+      <c r="D4" s="317"/>
+      <c r="E4" s="317"/>
+      <c r="F4" s="318"/>
       <c r="G4" s="189" t="s">
         <v>694</v>
       </c>
@@ -6095,35 +6098,35 @@
       <c r="G5" s="158" t="s">
         <v>690</v>
       </c>
-      <c r="H5" s="299" t="s">
+      <c r="H5" s="291" t="s">
         <v>691</v>
       </c>
-      <c r="I5" s="299"/>
-      <c r="J5" s="299"/>
-      <c r="K5" s="299"/>
-      <c r="L5" s="299"/>
-      <c r="M5" s="299"/>
-      <c r="N5" s="299"/>
-      <c r="O5" s="299"/>
-      <c r="P5" s="299"/>
-      <c r="Q5" s="299"/>
-      <c r="R5" s="299"/>
-      <c r="S5" s="299"/>
-      <c r="T5" s="299"/>
-      <c r="U5" s="299"/>
-      <c r="V5" s="299"/>
-      <c r="W5" s="299"/>
-      <c r="X5" s="299"/>
-      <c r="Y5" s="299"/>
+      <c r="I5" s="291"/>
+      <c r="J5" s="291"/>
+      <c r="K5" s="291"/>
+      <c r="L5" s="291"/>
+      <c r="M5" s="291"/>
+      <c r="N5" s="291"/>
+      <c r="O5" s="291"/>
+      <c r="P5" s="291"/>
+      <c r="Q5" s="291"/>
+      <c r="R5" s="291"/>
+      <c r="S5" s="291"/>
+      <c r="T5" s="291"/>
+      <c r="U5" s="291"/>
+      <c r="V5" s="291"/>
+      <c r="W5" s="291"/>
+      <c r="X5" s="291"/>
+      <c r="Y5" s="291"/>
     </row>
     <row r="6" spans="2:25" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="289" t="s">
+      <c r="B6" s="290" t="s">
         <v>685</v>
       </c>
-      <c r="C6" s="283" t="s">
+      <c r="C6" s="298" t="s">
         <v>688</v>
       </c>
-      <c r="D6" s="286" t="s">
+      <c r="D6" s="302" t="s">
         <v>713</v>
       </c>
       <c r="E6" s="142" t="s">
@@ -6153,9 +6156,9 @@
       <c r="Y6" s="169"/>
     </row>
     <row r="7" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B7" s="289"/>
-      <c r="C7" s="284"/>
-      <c r="D7" s="287"/>
+      <c r="B7" s="290"/>
+      <c r="C7" s="300"/>
+      <c r="D7" s="304"/>
       <c r="E7" s="142" t="s">
         <v>660</v>
       </c>
@@ -6183,9 +6186,9 @@
       <c r="Y7" s="161"/>
     </row>
     <row r="8" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B8" s="289"/>
-      <c r="C8" s="284"/>
-      <c r="D8" s="287"/>
+      <c r="B8" s="290"/>
+      <c r="C8" s="300"/>
+      <c r="D8" s="304"/>
       <c r="E8" s="142" t="s">
         <v>661</v>
       </c>
@@ -6213,9 +6216,9 @@
       <c r="Y8" s="161"/>
     </row>
     <row r="9" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="289"/>
-      <c r="C9" s="285"/>
-      <c r="D9" s="288"/>
+      <c r="B9" s="290"/>
+      <c r="C9" s="301"/>
+      <c r="D9" s="309"/>
       <c r="E9" s="143" t="s">
         <v>662</v>
       </c>
@@ -6243,13 +6246,13 @@
       <c r="Y9" s="162"/>
     </row>
     <row r="10" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="289" t="s">
+      <c r="B10" s="290" t="s">
         <v>686</v>
       </c>
-      <c r="C10" s="283" t="s">
+      <c r="C10" s="298" t="s">
         <v>689</v>
       </c>
-      <c r="D10" s="286" t="s">
+      <c r="D10" s="302" t="s">
         <v>712</v>
       </c>
       <c r="E10" s="194" t="s">
@@ -6281,9 +6284,9 @@
       <c r="Y10" s="160"/>
     </row>
     <row r="11" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="289"/>
-      <c r="C11" s="306"/>
-      <c r="D11" s="307"/>
+      <c r="B11" s="290"/>
+      <c r="C11" s="299"/>
+      <c r="D11" s="303"/>
       <c r="E11" s="194" t="s">
         <v>706</v>
       </c>
@@ -6311,9 +6314,9 @@
       <c r="Y11" s="161"/>
     </row>
     <row r="12" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="289"/>
-      <c r="C12" s="284"/>
-      <c r="D12" s="287"/>
+      <c r="B12" s="290"/>
+      <c r="C12" s="300"/>
+      <c r="D12" s="304"/>
       <c r="E12" s="194" t="s">
         <v>708</v>
       </c>
@@ -6341,9 +6344,9 @@
       <c r="Y12" s="161"/>
     </row>
     <row r="13" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="289"/>
-      <c r="C13" s="284"/>
-      <c r="D13" s="287"/>
+      <c r="B13" s="290"/>
+      <c r="C13" s="300"/>
+      <c r="D13" s="304"/>
       <c r="E13" s="194" t="s">
         <v>709</v>
       </c>
@@ -6371,9 +6374,9 @@
       <c r="Y13" s="161"/>
     </row>
     <row r="14" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="289"/>
-      <c r="C14" s="284"/>
-      <c r="D14" s="287"/>
+      <c r="B14" s="290"/>
+      <c r="C14" s="300"/>
+      <c r="D14" s="304"/>
       <c r="E14" s="194" t="s">
         <v>710</v>
       </c>
@@ -6401,9 +6404,9 @@
       <c r="Y14" s="161"/>
     </row>
     <row r="15" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="289"/>
-      <c r="C15" s="284"/>
-      <c r="D15" s="287"/>
+      <c r="B15" s="290"/>
+      <c r="C15" s="300"/>
+      <c r="D15" s="304"/>
       <c r="E15" s="142" t="s">
         <v>705</v>
       </c>
@@ -6431,9 +6434,9 @@
       <c r="Y15" s="161"/>
     </row>
     <row r="16" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="289"/>
-      <c r="C16" s="284"/>
-      <c r="D16" s="287"/>
+      <c r="B16" s="290"/>
+      <c r="C16" s="300"/>
+      <c r="D16" s="304"/>
       <c r="E16" s="142" t="s">
         <v>669</v>
       </c>
@@ -6461,9 +6464,9 @@
       <c r="Y16" s="161"/>
     </row>
     <row r="17" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="289"/>
-      <c r="C17" s="284"/>
-      <c r="D17" s="308" t="s">
+      <c r="B17" s="290"/>
+      <c r="C17" s="300"/>
+      <c r="D17" s="305" t="s">
         <v>711</v>
       </c>
       <c r="E17" s="144" t="s">
@@ -6493,9 +6496,9 @@
       <c r="Y17" s="161"/>
     </row>
     <row r="18" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="289"/>
-      <c r="C18" s="285"/>
-      <c r="D18" s="309"/>
+      <c r="B18" s="290"/>
+      <c r="C18" s="301"/>
+      <c r="D18" s="306"/>
       <c r="E18" s="143" t="s">
         <v>664</v>
       </c>
@@ -6523,13 +6526,13 @@
       <c r="Y18" s="163"/>
     </row>
     <row r="19" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B19" s="289" t="s">
+      <c r="B19" s="290" t="s">
         <v>687</v>
       </c>
-      <c r="C19" s="283" t="s">
+      <c r="C19" s="298" t="s">
         <v>670</v>
       </c>
-      <c r="D19" s="308" t="s">
+      <c r="D19" s="305" t="s">
         <v>714</v>
       </c>
       <c r="E19" s="142" t="s">
@@ -6557,9 +6560,9 @@
       <c r="Y19" s="200"/>
     </row>
     <row r="20" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B20" s="289"/>
-      <c r="C20" s="284"/>
-      <c r="D20" s="310"/>
+      <c r="B20" s="290"/>
+      <c r="C20" s="300"/>
+      <c r="D20" s="307"/>
       <c r="E20" s="142" t="s">
         <v>666</v>
       </c>
@@ -6585,9 +6588,9 @@
       <c r="Y20" s="159"/>
     </row>
     <row r="21" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="289"/>
-      <c r="C21" s="285"/>
-      <c r="D21" s="309"/>
+      <c r="B21" s="290"/>
+      <c r="C21" s="301"/>
+      <c r="D21" s="306"/>
       <c r="E21" s="142" t="s">
         <v>667</v>
       </c>
@@ -6613,7 +6616,7 @@
       <c r="Y21" s="197"/>
     </row>
     <row r="22" spans="2:25" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="289"/>
+      <c r="B22" s="290"/>
       <c r="C22" s="186" t="s">
         <v>657</v>
       </c>
@@ -6646,34 +6649,40 @@
     </row>
     <row r="23" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G23" s="161"/>
-      <c r="H23" s="300" t="s">
+      <c r="H23" s="292" t="s">
         <v>685</v>
       </c>
-      <c r="I23" s="301"/>
-      <c r="J23" s="302"/>
-      <c r="K23" s="300" t="s">
+      <c r="I23" s="293"/>
+      <c r="J23" s="294"/>
+      <c r="K23" s="292" t="s">
         <v>686</v>
       </c>
-      <c r="L23" s="301"/>
-      <c r="M23" s="301"/>
-      <c r="N23" s="301"/>
-      <c r="O23" s="301"/>
-      <c r="P23" s="301"/>
-      <c r="Q23" s="301"/>
-      <c r="R23" s="301"/>
-      <c r="S23" s="302"/>
-      <c r="T23" s="303" t="s">
+      <c r="L23" s="293"/>
+      <c r="M23" s="293"/>
+      <c r="N23" s="293"/>
+      <c r="O23" s="293"/>
+      <c r="P23" s="293"/>
+      <c r="Q23" s="293"/>
+      <c r="R23" s="293"/>
+      <c r="S23" s="294"/>
+      <c r="T23" s="295" t="s">
         <v>687</v>
       </c>
-      <c r="U23" s="304"/>
-      <c r="V23" s="304"/>
-      <c r="W23" s="304"/>
-      <c r="X23" s="304"/>
-      <c r="Y23" s="305"/>
+      <c r="U23" s="296"/>
+      <c r="V23" s="296"/>
+      <c r="W23" s="296"/>
+      <c r="X23" s="296"/>
+      <c r="Y23" s="297"/>
     </row>
     <row r="24" spans="2:25" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="H2:Q2"/>
+    <mergeCell ref="R2:Y2"/>
+    <mergeCell ref="C6:C9"/>
+    <mergeCell ref="D6:D9"/>
+    <mergeCell ref="B6:B9"/>
+    <mergeCell ref="B2:F4"/>
     <mergeCell ref="B10:B18"/>
     <mergeCell ref="B19:B22"/>
     <mergeCell ref="H5:Y5"/>
@@ -6685,12 +6694,6 @@
     <mergeCell ref="D17:D18"/>
     <mergeCell ref="C19:C21"/>
     <mergeCell ref="D19:D21"/>
-    <mergeCell ref="H2:Q2"/>
-    <mergeCell ref="R2:Y2"/>
-    <mergeCell ref="C6:C9"/>
-    <mergeCell ref="D6:D9"/>
-    <mergeCell ref="B6:B9"/>
-    <mergeCell ref="B2:F4"/>
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
   <conditionalFormatting sqref="G6:G18">
@@ -6753,19 +6756,19 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:7" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="234" t="s">
+      <c r="B2" s="230" t="s">
         <v>653</v>
       </c>
-      <c r="C2" s="234"/>
-      <c r="D2" s="234"/>
-      <c r="E2" s="234"/>
-      <c r="F2" s="234"/>
+      <c r="C2" s="230"/>
+      <c r="D2" s="230"/>
+      <c r="E2" s="230"/>
+      <c r="F2" s="230"/>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B3" s="235" t="s">
+      <c r="B3" s="231" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="235"/>
+      <c r="C3" s="231"/>
       <c r="D3" s="125"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
@@ -6787,10 +6790,10 @@
       </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B5" s="229" t="s">
+      <c r="B5" s="241" t="s">
         <v>32</v>
       </c>
-      <c r="C5" s="226" t="s">
+      <c r="C5" s="240" t="s">
         <v>33</v>
       </c>
       <c r="D5" s="127" t="s">
@@ -6805,8 +6808,8 @@
       </c>
     </row>
     <row r="6" spans="2:7" ht="29.25" x14ac:dyDescent="0.25">
-      <c r="B6" s="230"/>
-      <c r="C6" s="227"/>
+      <c r="B6" s="242"/>
+      <c r="C6" s="238"/>
       <c r="D6" s="129" t="s">
         <v>80</v>
       </c>
@@ -6821,8 +6824,8 @@
       </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B7" s="230"/>
-      <c r="C7" s="232" t="s">
+      <c r="B7" s="242"/>
+      <c r="C7" s="244" t="s">
         <v>36</v>
       </c>
       <c r="D7" s="129" t="s">
@@ -6837,8 +6840,8 @@
       </c>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B8" s="230"/>
-      <c r="C8" s="232"/>
+      <c r="B8" s="242"/>
+      <c r="C8" s="244"/>
       <c r="D8" s="129" t="s">
         <v>90</v>
       </c>
@@ -6851,8 +6854,8 @@
       </c>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B9" s="230"/>
-      <c r="C9" s="232"/>
+      <c r="B9" s="242"/>
+      <c r="C9" s="244"/>
       <c r="D9" s="129" t="s">
         <v>97</v>
       </c>
@@ -6865,8 +6868,8 @@
       </c>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B10" s="230"/>
-      <c r="C10" s="232"/>
+      <c r="B10" s="242"/>
+      <c r="C10" s="244"/>
       <c r="D10" s="129" t="s">
         <v>105</v>
       </c>
@@ -6879,8 +6882,8 @@
       </c>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B11" s="230"/>
-      <c r="C11" s="232"/>
+      <c r="B11" s="242"/>
+      <c r="C11" s="244"/>
       <c r="D11" s="129" t="s">
         <v>114</v>
       </c>
@@ -6893,8 +6896,8 @@
       </c>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B12" s="231"/>
-      <c r="C12" s="233"/>
+      <c r="B12" s="243"/>
+      <c r="C12" s="245"/>
       <c r="D12" s="131" t="s">
         <v>119</v>
       </c>
@@ -6907,10 +6910,10 @@
       </c>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B13" s="236" t="s">
+      <c r="B13" s="232" t="s">
         <v>43</v>
       </c>
-      <c r="C13" s="239" t="s">
+      <c r="C13" s="235" t="s">
         <v>44</v>
       </c>
       <c r="D13" s="127" t="s">
@@ -6925,8 +6928,8 @@
       </c>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B14" s="237"/>
-      <c r="C14" s="240"/>
+      <c r="B14" s="233"/>
+      <c r="C14" s="236"/>
       <c r="D14" s="129" t="s">
         <v>177</v>
       </c>
@@ -6941,8 +6944,8 @@
       </c>
     </row>
     <row r="15" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="237"/>
-      <c r="C15" s="240"/>
+      <c r="B15" s="233"/>
+      <c r="C15" s="236"/>
       <c r="D15" s="129" t="s">
         <v>180</v>
       </c>
@@ -6957,8 +6960,8 @@
       </c>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B16" s="237"/>
-      <c r="C16" s="240"/>
+      <c r="B16" s="233"/>
+      <c r="C16" s="236"/>
       <c r="D16" s="129" t="s">
         <v>183</v>
       </c>
@@ -6973,8 +6976,8 @@
       </c>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B17" s="237"/>
-      <c r="C17" s="241"/>
+      <c r="B17" s="233"/>
+      <c r="C17" s="237"/>
       <c r="D17" s="131" t="s">
         <v>186</v>
       </c>
@@ -6987,8 +6990,8 @@
       </c>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B18" s="237"/>
-      <c r="C18" s="227" t="s">
+      <c r="B18" s="233"/>
+      <c r="C18" s="238" t="s">
         <v>53</v>
       </c>
       <c r="D18" s="129" t="s">
@@ -7005,8 +7008,8 @@
       </c>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B19" s="237"/>
-      <c r="C19" s="227"/>
+      <c r="B19" s="233"/>
+      <c r="C19" s="238"/>
       <c r="D19" s="129" t="s">
         <v>193</v>
       </c>
@@ -7019,8 +7022,8 @@
       </c>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B20" s="238"/>
-      <c r="C20" s="228"/>
+      <c r="B20" s="234"/>
+      <c r="C20" s="239"/>
       <c r="D20" s="129" t="s">
         <v>195</v>
       </c>
@@ -7035,10 +7038,10 @@
       </c>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B21" s="229" t="s">
+      <c r="B21" s="241" t="s">
         <v>59</v>
       </c>
-      <c r="C21" s="226" t="s">
+      <c r="C21" s="240" t="s">
         <v>60</v>
       </c>
       <c r="D21" s="127" t="s">
@@ -7055,8 +7058,8 @@
       </c>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B22" s="230"/>
-      <c r="C22" s="227"/>
+      <c r="B22" s="242"/>
+      <c r="C22" s="238"/>
       <c r="D22" s="129" t="s">
         <v>263</v>
       </c>
@@ -7069,8 +7072,8 @@
       </c>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B23" s="231"/>
-      <c r="C23" s="228"/>
+      <c r="B23" s="243"/>
+      <c r="C23" s="239"/>
       <c r="D23" s="129" t="s">
         <v>265</v>
       </c>
@@ -7085,10 +7088,10 @@
       </c>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B24" s="229" t="s">
+      <c r="B24" s="241" t="s">
         <v>66</v>
       </c>
-      <c r="C24" s="226" t="s">
+      <c r="C24" s="240" t="s">
         <v>67</v>
       </c>
       <c r="D24" s="127" t="s">
@@ -7103,8 +7106,8 @@
       <c r="G24" s="52"/>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B25" s="230"/>
-      <c r="C25" s="227"/>
+      <c r="B25" s="242"/>
+      <c r="C25" s="238"/>
       <c r="D25" s="129" t="s">
         <v>353</v>
       </c>
@@ -7115,8 +7118,8 @@
       <c r="G25" s="52"/>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B26" s="231"/>
-      <c r="C26" s="228"/>
+      <c r="B26" s="243"/>
+      <c r="C26" s="239"/>
       <c r="D26" s="131" t="s">
         <v>356</v>
       </c>
@@ -7131,11 +7134,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B13:B20"/>
-    <mergeCell ref="C13:C17"/>
-    <mergeCell ref="C18:C20"/>
     <mergeCell ref="C21:C23"/>
     <mergeCell ref="B21:B23"/>
     <mergeCell ref="C24:C26"/>
@@ -7143,6 +7141,11 @@
     <mergeCell ref="C5:C6"/>
     <mergeCell ref="C7:C12"/>
     <mergeCell ref="B5:B12"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B13:B20"/>
+    <mergeCell ref="C13:C17"/>
+    <mergeCell ref="C18:C20"/>
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7172,13 +7175,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="217" t="s">
+      <c r="A1" s="221" t="s">
         <v>72</v>
       </c>
-      <c r="B1" s="217"/>
-      <c r="C1" s="217"/>
-      <c r="D1" s="217"/>
-      <c r="E1" s="217"/>
+      <c r="B1" s="221"/>
+      <c r="C1" s="221"/>
+      <c r="D1" s="221"/>
+      <c r="E1" s="221"/>
     </row>
     <row r="2" spans="1:8" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="53"/>
@@ -7199,10 +7202,10 @@
       <c r="H2" s="52"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="242">
+      <c r="A3" s="246">
         <v>1</v>
       </c>
-      <c r="B3" s="242" t="s">
+      <c r="B3" s="246" t="s">
         <v>75</v>
       </c>
       <c r="C3" s="91" t="s">
@@ -7214,8 +7217,8 @@
       <c r="E3" s="55"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="243"/>
-      <c r="B4" s="243"/>
+      <c r="A4" s="247"/>
+      <c r="B4" s="247"/>
       <c r="C4" s="91" t="s">
         <v>80</v>
       </c>
@@ -7225,8 +7228,8 @@
       <c r="E4" s="57"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="243"/>
-      <c r="B5" s="243"/>
+      <c r="A5" s="247"/>
+      <c r="B5" s="247"/>
       <c r="C5" s="91" t="s">
         <v>84</v>
       </c>
@@ -7236,8 +7239,8 @@
       <c r="E5" s="57"/>
     </row>
     <row r="6" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="244"/>
-      <c r="B6" s="244"/>
+      <c r="A6" s="248"/>
+      <c r="B6" s="248"/>
       <c r="C6" s="91" t="s">
         <v>90</v>
       </c>
@@ -7247,10 +7250,10 @@
       <c r="E6" s="59"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="242">
+      <c r="A7" s="246">
         <v>2</v>
       </c>
-      <c r="B7" s="242" t="s">
+      <c r="B7" s="246" t="s">
         <v>81</v>
       </c>
       <c r="C7" s="91" t="s">
@@ -7262,8 +7265,8 @@
       <c r="E7" s="57"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="243"/>
-      <c r="B8" s="243"/>
+      <c r="A8" s="247"/>
+      <c r="B8" s="247"/>
       <c r="C8" s="91" t="s">
         <v>177</v>
       </c>
@@ -7273,8 +7276,8 @@
       <c r="E8" s="57"/>
     </row>
     <row r="9" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="244"/>
-      <c r="B9" s="244"/>
+      <c r="A9" s="248"/>
+      <c r="B9" s="248"/>
       <c r="C9" s="91" t="s">
         <v>180</v>
       </c>
@@ -7282,10 +7285,10 @@
       <c r="E9" s="57"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="242">
+      <c r="A10" s="246">
         <v>3</v>
       </c>
-      <c r="B10" s="242" t="s">
+      <c r="B10" s="246" t="s">
         <v>85</v>
       </c>
       <c r="C10" s="91" t="s">
@@ -7299,8 +7302,8 @@
       </c>
     </row>
     <row r="11" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="244"/>
-      <c r="B11" s="244"/>
+      <c r="A11" s="248"/>
+      <c r="B11" s="248"/>
       <c r="C11" s="91" t="s">
         <v>263</v>
       </c>
@@ -7312,10 +7315,10 @@
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="245">
+      <c r="A12" s="249">
         <v>4</v>
       </c>
-      <c r="B12" s="242" t="s">
+      <c r="B12" s="246" t="s">
         <v>91</v>
       </c>
       <c r="C12" s="91" t="s">
@@ -7327,8 +7330,8 @@
       <c r="E12" s="55"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="245"/>
-      <c r="B13" s="243"/>
+      <c r="A13" s="249"/>
+      <c r="B13" s="247"/>
       <c r="C13" s="91" t="s">
         <v>353</v>
       </c>
@@ -7338,8 +7341,8 @@
       <c r="E13" s="57"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="245"/>
-      <c r="B14" s="243"/>
+      <c r="A14" s="249"/>
+      <c r="B14" s="247"/>
       <c r="C14" s="91" t="s">
         <v>356</v>
       </c>
@@ -7351,8 +7354,8 @@
       </c>
     </row>
     <row r="15" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="245"/>
-      <c r="B15" s="244"/>
+      <c r="A15" s="249"/>
+      <c r="B15" s="248"/>
       <c r="C15" s="91" t="s">
         <v>360</v>
       </c>
@@ -7364,10 +7367,10 @@
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="242">
+      <c r="A16" s="246">
         <v>5</v>
       </c>
-      <c r="B16" s="242" t="s">
+      <c r="B16" s="246" t="s">
         <v>98</v>
       </c>
       <c r="C16" s="91" t="s">
@@ -7381,8 +7384,8 @@
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="243"/>
-      <c r="B17" s="243"/>
+      <c r="A17" s="247"/>
+      <c r="B17" s="247"/>
       <c r="C17" s="91" t="s">
         <v>425</v>
       </c>
@@ -7394,8 +7397,8 @@
       </c>
     </row>
     <row r="18" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="243"/>
-      <c r="B18" s="244"/>
+      <c r="A18" s="247"/>
+      <c r="B18" s="248"/>
       <c r="C18" s="91" t="s">
         <v>428</v>
       </c>
@@ -7407,10 +7410,10 @@
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="242">
+      <c r="A19" s="246">
         <v>6</v>
       </c>
-      <c r="B19" s="242" t="s">
+      <c r="B19" s="246" t="s">
         <v>106</v>
       </c>
       <c r="C19" s="91" t="s">
@@ -7422,8 +7425,8 @@
       <c r="E19" s="55"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="243"/>
-      <c r="B20" s="243"/>
+      <c r="A20" s="247"/>
+      <c r="B20" s="247"/>
       <c r="C20" s="91" t="s">
         <v>465</v>
       </c>
@@ -7435,8 +7438,8 @@
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="243"/>
-      <c r="B21" s="243"/>
+      <c r="A21" s="247"/>
+      <c r="B21" s="247"/>
       <c r="C21" s="91" t="s">
         <v>467</v>
       </c>
@@ -7446,8 +7449,8 @@
       <c r="E21" s="57"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="243"/>
-      <c r="B22" s="243"/>
+      <c r="A22" s="247"/>
+      <c r="B22" s="247"/>
       <c r="C22" s="91" t="s">
         <v>469</v>
       </c>
@@ -7459,8 +7462,8 @@
       </c>
     </row>
     <row r="23" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="244"/>
-      <c r="B23" s="244"/>
+      <c r="A23" s="248"/>
+      <c r="B23" s="248"/>
       <c r="C23" s="91" t="s">
         <v>471</v>
       </c>
@@ -7470,10 +7473,10 @@
       <c r="E23" s="59"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="242">
+      <c r="A24" s="246">
         <v>7</v>
       </c>
-      <c r="B24" s="242" t="s">
+      <c r="B24" s="246" t="s">
         <v>115</v>
       </c>
       <c r="C24" s="91" t="s">
@@ -7485,8 +7488,8 @@
       <c r="E24" s="55"/>
     </row>
     <row r="25" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="244"/>
-      <c r="B25" s="244"/>
+      <c r="A25" s="248"/>
+      <c r="B25" s="248"/>
       <c r="C25" s="91" t="s">
         <v>502</v>
       </c>
@@ -7498,10 +7501,10 @@
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="242">
+      <c r="A26" s="246">
         <v>8</v>
       </c>
-      <c r="B26" s="242" t="s">
+      <c r="B26" s="246" t="s">
         <v>120</v>
       </c>
       <c r="C26" s="91" t="s">
@@ -7513,8 +7516,8 @@
       <c r="E26" s="55"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="243"/>
-      <c r="B27" s="243"/>
+      <c r="A27" s="247"/>
+      <c r="B27" s="247"/>
       <c r="C27" s="91" t="s">
         <v>521</v>
       </c>
@@ -7524,8 +7527,8 @@
       <c r="E27" s="57"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="243"/>
-      <c r="B28" s="243"/>
+      <c r="A28" s="247"/>
+      <c r="B28" s="247"/>
       <c r="C28" s="91" t="s">
         <v>522</v>
       </c>
@@ -7535,8 +7538,8 @@
       <c r="E28" s="57"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="243"/>
-      <c r="B29" s="243"/>
+      <c r="A29" s="247"/>
+      <c r="B29" s="247"/>
       <c r="C29" s="91" t="s">
         <v>523</v>
       </c>
@@ -7546,8 +7549,8 @@
       <c r="E29" s="57"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="243"/>
-      <c r="B30" s="243"/>
+      <c r="A30" s="247"/>
+      <c r="B30" s="247"/>
       <c r="C30" s="91" t="s">
         <v>525</v>
       </c>
@@ -7557,8 +7560,8 @@
       <c r="E30" s="57"/>
     </row>
     <row r="31" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="243"/>
-      <c r="B31" s="243"/>
+      <c r="A31" s="247"/>
+      <c r="B31" s="247"/>
       <c r="C31" s="91" t="s">
         <v>526</v>
       </c>
@@ -7568,8 +7571,8 @@
       <c r="E31" s="57"/>
     </row>
     <row r="32" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="244"/>
-      <c r="B32" s="244"/>
+      <c r="A32" s="248"/>
+      <c r="B32" s="248"/>
       <c r="C32" s="208" t="s">
         <v>528</v>
       </c>
@@ -7580,6 +7583,14 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A26:A32"/>
+    <mergeCell ref="B16:B18"/>
+    <mergeCell ref="B19:B23"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="B26:B32"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A19:A23"/>
+    <mergeCell ref="A24:A25"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="B3:B6"/>
     <mergeCell ref="B7:B9"/>
@@ -7589,14 +7600,6 @@
     <mergeCell ref="A7:A9"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A12:A15"/>
-    <mergeCell ref="A26:A32"/>
-    <mergeCell ref="B16:B18"/>
-    <mergeCell ref="B19:B23"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="B26:B32"/>
-    <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A23"/>
-    <mergeCell ref="A24:A25"/>
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7633,8 +7636,8 @@
   </sheetPr>
   <dimension ref="A1:F231"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A161" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B166" sqref="B166:B181"/>
+    <sheetView tabSelected="1" topLeftCell="A141" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D158" sqref="D158"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -7650,40 +7653,40 @@
   <sheetData>
     <row r="1" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:6" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="246"/>
-      <c r="B2" s="246" t="s">
+      <c r="A2" s="269"/>
+      <c r="B2" s="269" t="s">
         <v>30</v>
       </c>
       <c r="C2" s="93"/>
-      <c r="D2" s="246" t="s">
+      <c r="D2" s="269" t="s">
         <v>766</v>
       </c>
       <c r="E2" s="94" t="s">
         <v>129</v>
       </c>
-      <c r="F2" s="246" t="s">
+      <c r="F2" s="269" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="247"/>
-      <c r="B3" s="247"/>
+      <c r="A3" s="270"/>
+      <c r="B3" s="270"/>
       <c r="C3" s="95"/>
-      <c r="D3" s="247"/>
+      <c r="D3" s="270"/>
       <c r="E3" s="96"/>
-      <c r="F3" s="247"/>
+      <c r="F3" s="270"/>
     </row>
     <row r="4" spans="1:6" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="192" t="s">
         <v>654</v>
       </c>
-      <c r="B4" s="316" t="s">
+      <c r="B4" s="216" t="s">
         <v>131</v>
       </c>
-      <c r="C4" s="317">
+      <c r="C4" s="217">
         <v>1</v>
       </c>
-      <c r="D4" s="318" t="s">
+      <c r="D4" s="218" t="s">
         <v>605</v>
       </c>
       <c r="E4" s="4"/>
@@ -7693,7 +7696,7 @@
       <c r="A5" s="124" t="s">
         <v>697</v>
       </c>
-      <c r="B5" s="311" t="s">
+      <c r="B5" s="277" t="s">
         <v>604</v>
       </c>
       <c r="C5" s="6" t="s">
@@ -7710,7 +7713,7 @@
       <c r="A6" s="124" t="s">
         <v>735</v>
       </c>
-      <c r="B6" s="312"/>
+      <c r="B6" s="278"/>
       <c r="C6" s="6" t="s">
         <v>80</v>
       </c>
@@ -7723,7 +7726,7 @@
     </row>
     <row r="7" spans="1:6" s="11" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="124"/>
-      <c r="B7" s="312"/>
+      <c r="B7" s="278"/>
       <c r="C7" s="6" t="s">
         <v>84</v>
       </c>
@@ -7736,7 +7739,7 @@
     </row>
     <row r="8" spans="1:6" s="11" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="124"/>
-      <c r="B8" s="312"/>
+      <c r="B8" s="278"/>
       <c r="C8" s="6" t="s">
         <v>90</v>
       </c>
@@ -7749,7 +7752,7 @@
     </row>
     <row r="9" spans="1:6" s="11" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="206"/>
-      <c r="B9" s="312"/>
+      <c r="B9" s="278"/>
       <c r="C9" s="6" t="s">
         <v>97</v>
       </c>
@@ -7759,7 +7762,7 @@
     </row>
     <row r="10" spans="1:6" s="11" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="124"/>
-      <c r="B10" s="312"/>
+      <c r="B10" s="278"/>
       <c r="C10" s="6" t="s">
         <v>105</v>
       </c>
@@ -7769,7 +7772,7 @@
     </row>
     <row r="11" spans="1:6" s="11" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="124"/>
-      <c r="B11" s="312"/>
+      <c r="B11" s="278"/>
       <c r="C11" s="6" t="s">
         <v>114</v>
       </c>
@@ -7782,7 +7785,7 @@
     </row>
     <row r="12" spans="1:6" s="11" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="124"/>
-      <c r="B12" s="312"/>
+      <c r="B12" s="278"/>
       <c r="C12" s="6" t="s">
         <v>119</v>
       </c>
@@ -7795,7 +7798,7 @@
     </row>
     <row r="13" spans="1:6" s="11" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="124"/>
-      <c r="B13" s="313"/>
+      <c r="B13" s="281"/>
       <c r="C13" s="6" t="s">
         <v>139</v>
       </c>
@@ -7815,7 +7818,7 @@
     </row>
     <row r="15" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="124"/>
-      <c r="B15" s="250" t="s">
+      <c r="B15" s="256" t="s">
         <v>133</v>
       </c>
       <c r="C15" s="6" t="s">
@@ -7833,7 +7836,7 @@
       <c r="A16" s="207" t="s">
         <v>742</v>
       </c>
-      <c r="B16" s="251"/>
+      <c r="B16" s="257"/>
       <c r="C16" s="6" t="s">
         <v>177</v>
       </c>
@@ -7846,7 +7849,7 @@
     </row>
     <row r="17" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="124"/>
-      <c r="B17" s="251"/>
+      <c r="B17" s="257"/>
       <c r="C17" s="6" t="s">
         <v>180</v>
       </c>
@@ -7860,7 +7863,7 @@
       <c r="A18" s="124" t="s">
         <v>740</v>
       </c>
-      <c r="B18" s="251"/>
+      <c r="B18" s="257"/>
       <c r="C18" s="6" t="s">
         <v>183</v>
       </c>
@@ -7872,7 +7875,7 @@
     </row>
     <row r="19" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="124"/>
-      <c r="B19" s="251"/>
+      <c r="B19" s="257"/>
       <c r="C19" s="6" t="s">
         <v>186</v>
       </c>
@@ -7886,7 +7889,7 @@
       <c r="A20" s="124" t="s">
         <v>733</v>
       </c>
-      <c r="B20" s="251"/>
+      <c r="B20" s="257"/>
       <c r="C20" s="6" t="s">
         <v>189</v>
       </c>
@@ -7898,7 +7901,7 @@
     </row>
     <row r="21" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="124"/>
-      <c r="B21" s="251"/>
+      <c r="B21" s="257"/>
       <c r="C21" s="6" t="s">
         <v>193</v>
       </c>
@@ -7912,7 +7915,7 @@
       <c r="A22" s="124" t="s">
         <v>737</v>
       </c>
-      <c r="B22" s="252"/>
+      <c r="B22" s="258"/>
       <c r="C22" s="6" t="s">
         <v>195</v>
       </c>
@@ -7924,7 +7927,7 @@
     </row>
     <row r="23" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="123"/>
-      <c r="B23" s="250" t="s">
+      <c r="B23" s="256" t="s">
         <v>138</v>
       </c>
       <c r="C23" s="6" t="s">
@@ -7940,7 +7943,7 @@
       <c r="A24" s="124" t="s">
         <v>743</v>
       </c>
-      <c r="B24" s="251"/>
+      <c r="B24" s="257"/>
       <c r="C24" s="6" t="s">
         <v>201</v>
       </c>
@@ -7954,7 +7957,7 @@
       <c r="A25" s="124" t="s">
         <v>744</v>
       </c>
-      <c r="B25" s="251"/>
+      <c r="B25" s="257"/>
       <c r="C25" s="6" t="s">
         <v>203</v>
       </c>
@@ -7968,7 +7971,7 @@
       <c r="A26" s="124" t="s">
         <v>743</v>
       </c>
-      <c r="B26" s="251"/>
+      <c r="B26" s="257"/>
       <c r="C26" s="6" t="s">
         <v>206</v>
       </c>
@@ -7982,7 +7985,7 @@
       <c r="A27" s="124" t="s">
         <v>743</v>
       </c>
-      <c r="B27" s="251"/>
+      <c r="B27" s="257"/>
       <c r="C27" s="6" t="s">
         <v>210</v>
       </c>
@@ -7996,7 +7999,7 @@
       <c r="A28" s="124" t="s">
         <v>743</v>
       </c>
-      <c r="B28" s="252"/>
+      <c r="B28" s="258"/>
       <c r="C28" s="6" t="s">
         <v>185</v>
       </c>
@@ -8008,7 +8011,7 @@
     </row>
     <row r="29" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="124"/>
-      <c r="B29" s="250" t="s">
+      <c r="B29" s="256" t="s">
         <v>151</v>
       </c>
       <c r="C29" s="6" t="s">
@@ -8022,7 +8025,7 @@
     </row>
     <row r="30" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="124"/>
-      <c r="B30" s="251"/>
+      <c r="B30" s="257"/>
       <c r="C30" s="6" t="s">
         <v>219</v>
       </c>
@@ -8034,7 +8037,7 @@
     </row>
     <row r="31" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31" s="124"/>
-      <c r="B31" s="251"/>
+      <c r="B31" s="257"/>
       <c r="C31" s="6" t="s">
         <v>223</v>
       </c>
@@ -8048,7 +8051,7 @@
       <c r="A32" s="124" t="s">
         <v>717</v>
       </c>
-      <c r="B32" s="252"/>
+      <c r="B32" s="258"/>
       <c r="C32" s="6" t="s">
         <v>227</v>
       </c>
@@ -8060,7 +8063,7 @@
     </row>
     <row r="33" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A33" s="124"/>
-      <c r="B33" s="253" t="s">
+      <c r="B33" s="259" t="s">
         <v>157</v>
       </c>
       <c r="C33" s="6" t="s">
@@ -8072,7 +8075,7 @@
     </row>
     <row r="34" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A34" s="124"/>
-      <c r="B34" s="248"/>
+      <c r="B34" s="260"/>
       <c r="C34" s="110" t="s">
         <v>232</v>
       </c>
@@ -8084,7 +8087,7 @@
     </row>
     <row r="35" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A35" s="124"/>
-      <c r="B35" s="248"/>
+      <c r="B35" s="260"/>
       <c r="C35" s="6" t="s">
         <v>234</v>
       </c>
@@ -8096,7 +8099,7 @@
     </row>
     <row r="36" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A36" s="124"/>
-      <c r="B36" s="248"/>
+      <c r="B36" s="260"/>
       <c r="C36" s="6" t="s">
         <v>197</v>
       </c>
@@ -8108,7 +8111,7 @@
     </row>
     <row r="37" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A37" s="124"/>
-      <c r="B37" s="248"/>
+      <c r="B37" s="260"/>
       <c r="C37" s="6" t="s">
         <v>235</v>
       </c>
@@ -8120,7 +8123,7 @@
     </row>
     <row r="38" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A38" s="124"/>
-      <c r="B38" s="248"/>
+      <c r="B38" s="260"/>
       <c r="C38" s="6" t="s">
         <v>242</v>
       </c>
@@ -8132,7 +8135,7 @@
     </row>
     <row r="39" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A39" s="124"/>
-      <c r="B39" s="248"/>
+      <c r="B39" s="260"/>
       <c r="C39" s="6" t="s">
         <v>245</v>
       </c>
@@ -8144,7 +8147,7 @@
     </row>
     <row r="40" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A40" s="124"/>
-      <c r="B40" s="248"/>
+      <c r="B40" s="260"/>
       <c r="C40" s="6" t="s">
         <v>248</v>
       </c>
@@ -8156,7 +8159,7 @@
     </row>
     <row r="41" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A41" s="124"/>
-      <c r="B41" s="254"/>
+      <c r="B41" s="255"/>
       <c r="C41" s="6" t="s">
         <v>253</v>
       </c>
@@ -8168,7 +8171,7 @@
     </row>
     <row r="42" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A42" s="124"/>
-      <c r="B42" s="248"/>
+      <c r="B42" s="260"/>
       <c r="C42" s="6" t="s">
         <v>166</v>
       </c>
@@ -8180,7 +8183,7 @@
     </row>
     <row r="43" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A43" s="124"/>
-      <c r="B43" s="248"/>
+      <c r="B43" s="260"/>
       <c r="C43" s="6" t="s">
         <v>168</v>
       </c>
@@ -8192,7 +8195,7 @@
     </row>
     <row r="44" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A44" s="124"/>
-      <c r="B44" s="249"/>
+      <c r="B44" s="262"/>
       <c r="C44" s="6" t="s">
         <v>169</v>
       </c>
@@ -8219,7 +8222,7 @@
       <c r="A46" s="124" t="s">
         <v>747</v>
       </c>
-      <c r="B46" s="250" t="s">
+      <c r="B46" s="256" t="s">
         <v>172</v>
       </c>
       <c r="C46" s="18" t="s">
@@ -8237,7 +8240,7 @@
     </row>
     <row r="47" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A47" s="124"/>
-      <c r="B47" s="251"/>
+      <c r="B47" s="257"/>
       <c r="C47" s="18" t="s">
         <v>263</v>
       </c>
@@ -8251,7 +8254,7 @@
     </row>
     <row r="48" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A48" s="124"/>
-      <c r="B48" s="251"/>
+      <c r="B48" s="257"/>
       <c r="C48" s="18" t="s">
         <v>265</v>
       </c>
@@ -8265,7 +8268,7 @@
     </row>
     <row r="49" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A49" s="124"/>
-      <c r="B49" s="251"/>
+      <c r="B49" s="257"/>
       <c r="C49" s="18" t="s">
         <v>267</v>
       </c>
@@ -8279,7 +8282,7 @@
     </row>
     <row r="50" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A50" s="124"/>
-      <c r="B50" s="251"/>
+      <c r="B50" s="257"/>
       <c r="C50" s="18" t="s">
         <v>269</v>
       </c>
@@ -8295,7 +8298,7 @@
       <c r="A51" s="124" t="s">
         <v>749</v>
       </c>
-      <c r="B51" s="250" t="s">
+      <c r="B51" s="256" t="s">
         <v>188</v>
       </c>
       <c r="C51" s="18" t="s">
@@ -8312,10 +8315,10 @@
       </c>
     </row>
     <row r="52" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="255" t="s">
+      <c r="A52" s="250" t="s">
         <v>751</v>
       </c>
-      <c r="B52" s="251"/>
+      <c r="B52" s="257"/>
       <c r="C52" s="18" t="s">
         <v>276</v>
       </c>
@@ -8326,8 +8329,8 @@
       <c r="F52" s="10"/>
     </row>
     <row r="53" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="256"/>
-      <c r="B53" s="251"/>
+      <c r="A53" s="251"/>
+      <c r="B53" s="257"/>
       <c r="C53" s="18" t="s">
         <v>280</v>
       </c>
@@ -8342,8 +8345,8 @@
       </c>
     </row>
     <row r="54" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="256"/>
-      <c r="B54" s="251"/>
+      <c r="A54" s="251"/>
+      <c r="B54" s="257"/>
       <c r="C54" s="18" t="s">
         <v>284</v>
       </c>
@@ -8358,8 +8361,8 @@
       </c>
     </row>
     <row r="55" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="256"/>
-      <c r="B55" s="251"/>
+      <c r="A55" s="251"/>
+      <c r="B55" s="257"/>
       <c r="C55" s="18" t="s">
         <v>287</v>
       </c>
@@ -8375,7 +8378,7 @@
       <c r="A56" s="124" t="s">
         <v>752</v>
       </c>
-      <c r="B56" s="252"/>
+      <c r="B56" s="258"/>
       <c r="C56" s="18" t="s">
         <v>290</v>
       </c>
@@ -8391,7 +8394,7 @@
     </row>
     <row r="57" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A57" s="124"/>
-      <c r="B57" s="250" t="s">
+      <c r="B57" s="256" t="s">
         <v>205</v>
       </c>
       <c r="C57" s="18" t="s">
@@ -8409,7 +8412,7 @@
     </row>
     <row r="58" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A58" s="124"/>
-      <c r="B58" s="251"/>
+      <c r="B58" s="257"/>
       <c r="C58" s="18" t="s">
         <v>297</v>
       </c>
@@ -8425,7 +8428,7 @@
     </row>
     <row r="59" spans="1:6" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A59" s="124"/>
-      <c r="B59" s="251"/>
+      <c r="B59" s="257"/>
       <c r="C59" s="18" t="s">
         <v>301</v>
       </c>
@@ -8439,7 +8442,7 @@
     </row>
     <row r="60" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A60" s="124"/>
-      <c r="B60" s="251"/>
+      <c r="B60" s="257"/>
       <c r="C60" s="18" t="s">
         <v>304</v>
       </c>
@@ -8455,7 +8458,7 @@
     </row>
     <row r="61" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A61" s="124"/>
-      <c r="B61" s="251"/>
+      <c r="B61" s="257"/>
       <c r="C61" s="18" t="s">
         <v>307</v>
       </c>
@@ -8471,7 +8474,7 @@
     </row>
     <row r="62" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A62" s="124"/>
-      <c r="B62" s="252"/>
+      <c r="B62" s="258"/>
       <c r="C62" s="18" t="s">
         <v>311</v>
       </c>
@@ -8487,7 +8490,7 @@
       <c r="A63" s="124" t="s">
         <v>750</v>
       </c>
-      <c r="B63" s="250" t="s">
+      <c r="B63" s="256" t="s">
         <v>226</v>
       </c>
       <c r="C63" s="18" t="s">
@@ -8503,7 +8506,7 @@
     </row>
     <row r="64" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A64" s="124"/>
-      <c r="B64" s="251"/>
+      <c r="B64" s="257"/>
       <c r="C64" s="18" t="s">
         <v>225</v>
       </c>
@@ -8515,7 +8518,7 @@
     </row>
     <row r="65" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A65" s="124"/>
-      <c r="B65" s="251"/>
+      <c r="B65" s="257"/>
       <c r="C65" s="18" t="s">
         <v>321</v>
       </c>
@@ -8531,7 +8534,7 @@
       <c r="A66" s="124" t="s">
         <v>756</v>
       </c>
-      <c r="B66" s="252"/>
+      <c r="B66" s="258"/>
       <c r="C66" s="18" t="s">
         <v>324</v>
       </c>
@@ -8545,7 +8548,7 @@
     </row>
     <row r="67" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A67" s="124"/>
-      <c r="B67" s="250" t="s">
+      <c r="B67" s="256" t="s">
         <v>236</v>
       </c>
       <c r="C67" s="18" t="s">
@@ -8561,7 +8564,7 @@
     </row>
     <row r="68" spans="1:6" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A68" s="124"/>
-      <c r="B68" s="251"/>
+      <c r="B68" s="257"/>
       <c r="C68" s="18" t="s">
         <v>330</v>
       </c>
@@ -8577,7 +8580,7 @@
     </row>
     <row r="69" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A69" s="124"/>
-      <c r="B69" s="251"/>
+      <c r="B69" s="257"/>
       <c r="C69" s="18" t="s">
         <v>333</v>
       </c>
@@ -8593,7 +8596,7 @@
     </row>
     <row r="70" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A70" s="124"/>
-      <c r="B70" s="251"/>
+      <c r="B70" s="257"/>
       <c r="C70" s="18" t="s">
         <v>335</v>
       </c>
@@ -8607,7 +8610,7 @@
     </row>
     <row r="71" spans="1:6" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A71" s="124"/>
-      <c r="B71" s="252"/>
+      <c r="B71" s="258"/>
       <c r="C71" s="18" t="s">
         <v>338</v>
       </c>
@@ -8625,7 +8628,7 @@
       <c r="A72" s="124" t="s">
         <v>748</v>
       </c>
-      <c r="B72" s="250" t="s">
+      <c r="B72" s="256" t="s">
         <v>252</v>
       </c>
       <c r="C72" s="18" t="s">
@@ -8639,7 +8642,7 @@
     </row>
     <row r="73" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A73" s="124"/>
-      <c r="B73" s="251"/>
+      <c r="B73" s="257"/>
       <c r="C73" s="18" t="s">
         <v>343</v>
       </c>
@@ -8649,7 +8652,7 @@
     </row>
     <row r="74" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A74" s="124"/>
-      <c r="B74" s="251"/>
+      <c r="B74" s="257"/>
       <c r="C74" s="18" t="s">
         <v>606</v>
       </c>
@@ -8659,7 +8662,7 @@
     </row>
     <row r="75" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A75" s="124"/>
-      <c r="B75" s="251"/>
+      <c r="B75" s="257"/>
       <c r="C75" s="18" t="s">
         <v>607</v>
       </c>
@@ -8671,7 +8674,7 @@
       <c r="A76" s="124" t="s">
         <v>754</v>
       </c>
-      <c r="B76" s="252"/>
+      <c r="B76" s="258"/>
       <c r="C76" s="18" t="s">
         <v>608</v>
       </c>
@@ -8683,7 +8686,7 @@
     </row>
     <row r="77" spans="1:6" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A77" s="124"/>
-      <c r="B77" s="253"/>
+      <c r="B77" s="259"/>
       <c r="C77" s="28" t="s">
         <v>166</v>
       </c>
@@ -8697,7 +8700,7 @@
     </row>
     <row r="78" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A78" s="124"/>
-      <c r="B78" s="248"/>
+      <c r="B78" s="260"/>
       <c r="C78" s="18" t="s">
         <v>168</v>
       </c>
@@ -8711,7 +8714,7 @@
     </row>
     <row r="79" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A79" s="124"/>
-      <c r="B79" s="273"/>
+      <c r="B79" s="261"/>
       <c r="C79" s="18" t="s">
         <v>169</v>
       </c>
@@ -8736,7 +8739,7 @@
     </row>
     <row r="81" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A81" s="124"/>
-      <c r="B81" s="253" t="s">
+      <c r="B81" s="259" t="s">
         <v>260</v>
       </c>
       <c r="C81" s="6" t="s">
@@ -8752,7 +8755,7 @@
       <c r="A82" s="124" t="s">
         <v>736</v>
       </c>
-      <c r="B82" s="248"/>
+      <c r="B82" s="260"/>
       <c r="C82" s="6" t="s">
         <v>353</v>
       </c>
@@ -8764,7 +8767,7 @@
     </row>
     <row r="83" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A83" s="124"/>
-      <c r="B83" s="248"/>
+      <c r="B83" s="260"/>
       <c r="C83" s="6" t="s">
         <v>356</v>
       </c>
@@ -8776,7 +8779,7 @@
     </row>
     <row r="84" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A84" s="124"/>
-      <c r="B84" s="248"/>
+      <c r="B84" s="260"/>
       <c r="C84" s="6" t="s">
         <v>360</v>
       </c>
@@ -8788,7 +8791,7 @@
     </row>
     <row r="85" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A85" s="124"/>
-      <c r="B85" s="248"/>
+      <c r="B85" s="260"/>
       <c r="C85" s="6" t="s">
         <v>362</v>
       </c>
@@ -8802,7 +8805,7 @@
     </row>
     <row r="86" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A86" s="124"/>
-      <c r="B86" s="253" t="s">
+      <c r="B86" s="259" t="s">
         <v>272</v>
       </c>
       <c r="C86" s="6" t="s">
@@ -8820,7 +8823,7 @@
     </row>
     <row r="87" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A87" s="124"/>
-      <c r="B87" s="248"/>
+      <c r="B87" s="260"/>
       <c r="C87" s="6" t="s">
         <v>367</v>
       </c>
@@ -8836,7 +8839,7 @@
     </row>
     <row r="88" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A88" s="124"/>
-      <c r="B88" s="248"/>
+      <c r="B88" s="260"/>
       <c r="C88" s="6" t="s">
         <v>370</v>
       </c>
@@ -8852,7 +8855,7 @@
     </row>
     <row r="89" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A89" s="124"/>
-      <c r="B89" s="248"/>
+      <c r="B89" s="260"/>
       <c r="C89" s="6" t="s">
         <v>373</v>
       </c>
@@ -8866,7 +8869,7 @@
     </row>
     <row r="90" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A90" s="124"/>
-      <c r="B90" s="248"/>
+      <c r="B90" s="260"/>
       <c r="C90" s="6" t="s">
         <v>375</v>
       </c>
@@ -8880,7 +8883,7 @@
     </row>
     <row r="91" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A91" s="124"/>
-      <c r="B91" s="254"/>
+      <c r="B91" s="255"/>
       <c r="C91" s="6" t="s">
         <v>377</v>
       </c>
@@ -8894,7 +8897,7 @@
     </row>
     <row r="92" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A92" s="124"/>
-      <c r="B92" s="253" t="s">
+      <c r="B92" s="259" t="s">
         <v>293</v>
       </c>
       <c r="C92" s="6" t="s">
@@ -8910,7 +8913,7 @@
     </row>
     <row r="93" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A93" s="124"/>
-      <c r="B93" s="248"/>
+      <c r="B93" s="260"/>
       <c r="C93" s="6" t="s">
         <v>382</v>
       </c>
@@ -8926,7 +8929,7 @@
     </row>
     <row r="94" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A94" s="124"/>
-      <c r="B94" s="248"/>
+      <c r="B94" s="260"/>
       <c r="C94" s="6" t="s">
         <v>384</v>
       </c>
@@ -8940,7 +8943,7 @@
     </row>
     <row r="95" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A95" s="124"/>
-      <c r="B95" s="254"/>
+      <c r="B95" s="255"/>
       <c r="C95" s="6" t="s">
         <v>386</v>
       </c>
@@ -8954,7 +8957,7 @@
     </row>
     <row r="96" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A96" s="124"/>
-      <c r="B96" s="253" t="s">
+      <c r="B96" s="259" t="s">
         <v>306</v>
       </c>
       <c r="C96" s="6" t="s">
@@ -8972,7 +8975,7 @@
     </row>
     <row r="97" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A97" s="124"/>
-      <c r="B97" s="248"/>
+      <c r="B97" s="260"/>
       <c r="C97" s="6" t="s">
         <v>390</v>
       </c>
@@ -8988,7 +8991,7 @@
     </row>
     <row r="98" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A98" s="124"/>
-      <c r="B98" s="254"/>
+      <c r="B98" s="255"/>
       <c r="C98" s="6" t="s">
         <v>393</v>
       </c>
@@ -9004,7 +9007,7 @@
     </row>
     <row r="99" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A99" s="124"/>
-      <c r="B99" s="253" t="s">
+      <c r="B99" s="259" t="s">
         <v>317</v>
       </c>
       <c r="C99" s="6" t="s">
@@ -9022,7 +9025,7 @@
     </row>
     <row r="100" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A100" s="124"/>
-      <c r="B100" s="248"/>
+      <c r="B100" s="260"/>
       <c r="C100" s="6" t="s">
         <v>397</v>
       </c>
@@ -9038,7 +9041,7 @@
     </row>
     <row r="101" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A101" s="124"/>
-      <c r="B101" s="248"/>
+      <c r="B101" s="260"/>
       <c r="C101" s="6" t="s">
         <v>400</v>
       </c>
@@ -9052,7 +9055,7 @@
     </row>
     <row r="102" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A102" s="124"/>
-      <c r="B102" s="254"/>
+      <c r="B102" s="255"/>
       <c r="C102" s="6" t="s">
         <v>402</v>
       </c>
@@ -9066,7 +9069,7 @@
     </row>
     <row r="103" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A103" s="124"/>
-      <c r="B103" s="263" t="s">
+      <c r="B103" s="274" t="s">
         <v>329</v>
       </c>
       <c r="C103" s="6" t="s">
@@ -9082,7 +9085,7 @@
     </row>
     <row r="104" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A104" s="124"/>
-      <c r="B104" s="264"/>
+      <c r="B104" s="275"/>
       <c r="C104" s="6" t="s">
         <v>405</v>
       </c>
@@ -9096,7 +9099,7 @@
     </row>
     <row r="105" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A105" s="124"/>
-      <c r="B105" s="264"/>
+      <c r="B105" s="275"/>
       <c r="C105" s="6" t="s">
         <v>406</v>
       </c>
@@ -9110,7 +9113,7 @@
     </row>
     <row r="106" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A106" s="124"/>
-      <c r="B106" s="264"/>
+      <c r="B106" s="275"/>
       <c r="C106" s="6" t="s">
         <v>408</v>
       </c>
@@ -9122,7 +9125,7 @@
     </row>
     <row r="107" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A107" s="124"/>
-      <c r="B107" s="264"/>
+      <c r="B107" s="275"/>
       <c r="C107" s="6" t="s">
         <v>410</v>
       </c>
@@ -9136,7 +9139,7 @@
     </row>
     <row r="108" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A108" s="124"/>
-      <c r="B108" s="265"/>
+      <c r="B108" s="276"/>
       <c r="C108" s="6" t="s">
         <v>412</v>
       </c>
@@ -9150,7 +9153,7 @@
     </row>
     <row r="109" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A109" s="124"/>
-      <c r="B109" s="248"/>
+      <c r="B109" s="260"/>
       <c r="C109" s="18" t="s">
         <v>166</v>
       </c>
@@ -9162,7 +9165,7 @@
     </row>
     <row r="110" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A110" s="124"/>
-      <c r="B110" s="248"/>
+      <c r="B110" s="260"/>
       <c r="C110" s="6" t="s">
         <v>168</v>
       </c>
@@ -9176,7 +9179,7 @@
     </row>
     <row r="111" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A111" s="124"/>
-      <c r="B111" s="249"/>
+      <c r="B111" s="262"/>
       <c r="C111" s="6" t="s">
         <v>169</v>
       </c>
@@ -9201,7 +9204,7 @@
     </row>
     <row r="113" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A113" s="124"/>
-      <c r="B113" s="266" t="s">
+      <c r="B113" s="280" t="s">
         <v>349</v>
       </c>
       <c r="C113" s="6" t="s">
@@ -9217,7 +9220,7 @@
     </row>
     <row r="114" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A114" s="124"/>
-      <c r="B114" s="248"/>
+      <c r="B114" s="260"/>
       <c r="C114" s="6" t="s">
         <v>425</v>
       </c>
@@ -9231,7 +9234,7 @@
     </row>
     <row r="115" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A115" s="124"/>
-      <c r="B115" s="248"/>
+      <c r="B115" s="260"/>
       <c r="C115" s="6" t="s">
         <v>428</v>
       </c>
@@ -9247,7 +9250,7 @@
     </row>
     <row r="116" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A116" s="124"/>
-      <c r="B116" s="248"/>
+      <c r="B116" s="260"/>
       <c r="C116" s="6" t="s">
         <v>431</v>
       </c>
@@ -9259,7 +9262,7 @@
     </row>
     <row r="117" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A117" s="124"/>
-      <c r="B117" s="248"/>
+      <c r="B117" s="260"/>
       <c r="C117" s="6" t="s">
         <v>278</v>
       </c>
@@ -9271,7 +9274,7 @@
     </row>
     <row r="118" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A118" s="124"/>
-      <c r="B118" s="254"/>
+      <c r="B118" s="255"/>
       <c r="C118" s="6" t="s">
         <v>271</v>
       </c>
@@ -9283,7 +9286,7 @@
     </row>
     <row r="119" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A119" s="124"/>
-      <c r="B119" s="253" t="s">
+      <c r="B119" s="259" t="s">
         <v>366</v>
       </c>
       <c r="C119" s="6" t="s">
@@ -9299,7 +9302,7 @@
     </row>
     <row r="120" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A120" s="124"/>
-      <c r="B120" s="254"/>
+      <c r="B120" s="255"/>
       <c r="C120" s="6" t="s">
         <v>439</v>
       </c>
@@ -9311,7 +9314,7 @@
     </row>
     <row r="121" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A121" s="124"/>
-      <c r="B121" s="253" t="s">
+      <c r="B121" s="259" t="s">
         <v>372</v>
       </c>
       <c r="C121" s="6" t="s">
@@ -9325,7 +9328,7 @@
     </row>
     <row r="122" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A122" s="124"/>
-      <c r="B122" s="248"/>
+      <c r="B122" s="260"/>
       <c r="C122" s="6" t="s">
         <v>443</v>
       </c>
@@ -9337,7 +9340,7 @@
     </row>
     <row r="123" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A123" s="124"/>
-      <c r="B123" s="254"/>
+      <c r="B123" s="255"/>
       <c r="C123" s="6" t="s">
         <v>445</v>
       </c>
@@ -9349,7 +9352,7 @@
     </row>
     <row r="124" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A124" s="124"/>
-      <c r="B124" s="253" t="s">
+      <c r="B124" s="259" t="s">
         <v>379</v>
       </c>
       <c r="C124" s="6" t="s">
@@ -9363,7 +9366,7 @@
     </row>
     <row r="125" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A125" s="124"/>
-      <c r="B125" s="248"/>
+      <c r="B125" s="260"/>
       <c r="C125" s="6" t="s">
         <v>449</v>
       </c>
@@ -9375,7 +9378,7 @@
     </row>
     <row r="126" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A126" s="124"/>
-      <c r="B126" s="248"/>
+      <c r="B126" s="260"/>
       <c r="C126" s="6" t="s">
         <v>452</v>
       </c>
@@ -9387,7 +9390,7 @@
     </row>
     <row r="127" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A127" s="124"/>
-      <c r="B127" s="248"/>
+      <c r="B127" s="260"/>
       <c r="C127" s="6" t="s">
         <v>454</v>
       </c>
@@ -9399,7 +9402,7 @@
     </row>
     <row r="128" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A128" s="124"/>
-      <c r="B128" s="248"/>
+      <c r="B128" s="260"/>
       <c r="C128" s="6" t="s">
         <v>456</v>
       </c>
@@ -9411,7 +9414,7 @@
     </row>
     <row r="129" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A129" s="124"/>
-      <c r="B129" s="254"/>
+      <c r="B129" s="255"/>
       <c r="C129" s="6" t="s">
         <v>609</v>
       </c>
@@ -9423,7 +9426,7 @@
     </row>
     <row r="130" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A130" s="124"/>
-      <c r="B130" s="253" t="s">
+      <c r="B130" s="259" t="s">
         <v>392</v>
       </c>
       <c r="C130" s="6" t="s">
@@ -9437,7 +9440,7 @@
     </row>
     <row r="131" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A131" s="124"/>
-      <c r="B131" s="248"/>
+      <c r="B131" s="260"/>
       <c r="C131" s="6" t="s">
         <v>611</v>
       </c>
@@ -9449,7 +9452,7 @@
     </row>
     <row r="132" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A132" s="124"/>
-      <c r="B132" s="254"/>
+      <c r="B132" s="255"/>
       <c r="C132" s="6" t="s">
         <v>612</v>
       </c>
@@ -9461,7 +9464,7 @@
     </row>
     <row r="133" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A133" s="124"/>
-      <c r="B133" s="253" t="s">
+      <c r="B133" s="259" t="s">
         <v>399</v>
       </c>
       <c r="C133" s="6" t="s">
@@ -9475,7 +9478,7 @@
     </row>
     <row r="134" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A134" s="124"/>
-      <c r="B134" s="254"/>
+      <c r="B134" s="255"/>
       <c r="C134" s="6" t="s">
         <v>614</v>
       </c>
@@ -9487,7 +9490,7 @@
     </row>
     <row r="135" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A135" s="124"/>
-      <c r="B135" s="248"/>
+      <c r="B135" s="260"/>
       <c r="C135" s="6" t="s">
         <v>615</v>
       </c>
@@ -9499,7 +9502,7 @@
     </row>
     <row r="136" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A136" s="124"/>
-      <c r="B136" s="248"/>
+      <c r="B136" s="260"/>
       <c r="C136" s="6" t="s">
         <v>616</v>
       </c>
@@ -9511,7 +9514,7 @@
     </row>
     <row r="137" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A137" s="124"/>
-      <c r="B137" s="248"/>
+      <c r="B137" s="260"/>
       <c r="C137" s="6" t="s">
         <v>303</v>
       </c>
@@ -9523,7 +9526,7 @@
     </row>
     <row r="138" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A138" s="124"/>
-      <c r="B138" s="248"/>
+      <c r="B138" s="260"/>
       <c r="C138" s="6" t="s">
         <v>617</v>
       </c>
@@ -9535,7 +9538,7 @@
     </row>
     <row r="139" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A139" s="124"/>
-      <c r="B139" s="248"/>
+      <c r="B139" s="260"/>
       <c r="C139" s="6" t="s">
         <v>618</v>
       </c>
@@ -9547,7 +9550,7 @@
     </row>
     <row r="140" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A140" s="124"/>
-      <c r="B140" s="248"/>
+      <c r="B140" s="260"/>
       <c r="C140" s="6" t="s">
         <v>619</v>
       </c>
@@ -9559,7 +9562,7 @@
     </row>
     <row r="141" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A141" s="124"/>
-      <c r="B141" s="248"/>
+      <c r="B141" s="260"/>
       <c r="C141" s="6" t="s">
         <v>620</v>
       </c>
@@ -9571,7 +9574,7 @@
     </row>
     <row r="142" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A142" s="124"/>
-      <c r="B142" s="248"/>
+      <c r="B142" s="260"/>
       <c r="C142" s="6" t="s">
         <v>166</v>
       </c>
@@ -9583,7 +9586,7 @@
     </row>
     <row r="143" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A143" s="124"/>
-      <c r="B143" s="248"/>
+      <c r="B143" s="260"/>
       <c r="C143" s="6" t="s">
         <v>168</v>
       </c>
@@ -9595,7 +9598,7 @@
     </row>
     <row r="144" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A144" s="124"/>
-      <c r="B144" s="249"/>
+      <c r="B144" s="262"/>
       <c r="C144" s="6" t="s">
         <v>169</v>
       </c>
@@ -9636,7 +9639,7 @@
     </row>
     <row r="147" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A147" s="124"/>
-      <c r="B147" s="271" t="s">
+      <c r="B147" s="253" t="s">
         <v>424</v>
       </c>
       <c r="C147" s="101" t="s">
@@ -9651,10 +9654,10 @@
       </c>
     </row>
     <row r="148" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A148" s="255" t="s">
+      <c r="A148" s="250" t="s">
         <v>758</v>
       </c>
-      <c r="B148" s="272"/>
+      <c r="B148" s="254"/>
       <c r="C148" s="108" t="s">
         <v>467</v>
       </c>
@@ -9667,8 +9670,8 @@
       </c>
     </row>
     <row r="149" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A149" s="256"/>
-      <c r="B149" s="272"/>
+      <c r="A149" s="251"/>
+      <c r="B149" s="254"/>
       <c r="C149" s="101" t="s">
         <v>469</v>
       </c>
@@ -9679,12 +9682,12 @@
       <c r="F149" s="10"/>
     </row>
     <row r="150" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A150" s="270"/>
-      <c r="B150" s="272"/>
+      <c r="A150" s="252"/>
+      <c r="B150" s="254"/>
       <c r="C150" s="108" t="s">
         <v>471</v>
       </c>
-      <c r="D150" s="106" t="s">
+      <c r="D150" s="319" t="s">
         <v>433</v>
       </c>
       <c r="E150" s="25"/>
@@ -9694,11 +9697,11 @@
       <c r="A151" s="124" t="s">
         <v>757</v>
       </c>
-      <c r="B151" s="272"/>
+      <c r="B151" s="254"/>
       <c r="C151" s="101" t="s">
         <v>473</v>
       </c>
-      <c r="D151" s="106" t="s">
+      <c r="D151" s="319" t="s">
         <v>434</v>
       </c>
       <c r="E151" s="25"/>
@@ -9708,7 +9711,7 @@
     </row>
     <row r="152" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A152" s="124"/>
-      <c r="B152" s="272"/>
+      <c r="B152" s="254"/>
       <c r="C152" s="108" t="s">
         <v>475</v>
       </c>
@@ -9722,7 +9725,7 @@
     </row>
     <row r="153" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A153" s="124"/>
-      <c r="B153" s="272"/>
+      <c r="B153" s="254"/>
       <c r="C153" s="101" t="s">
         <v>477</v>
       </c>
@@ -9734,7 +9737,7 @@
     </row>
     <row r="154" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A154" s="124"/>
-      <c r="B154" s="272"/>
+      <c r="B154" s="254"/>
       <c r="C154" s="108" t="s">
         <v>479</v>
       </c>
@@ -9746,7 +9749,7 @@
     </row>
     <row r="155" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A155" s="124"/>
-      <c r="B155" s="272"/>
+      <c r="B155" s="254"/>
       <c r="C155" s="101" t="s">
         <v>481</v>
       </c>
@@ -9758,7 +9761,7 @@
     </row>
     <row r="156" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A156" s="124"/>
-      <c r="B156" s="272"/>
+      <c r="B156" s="254"/>
       <c r="C156" s="108" t="s">
         <v>483</v>
       </c>
@@ -9770,7 +9773,7 @@
     </row>
     <row r="157" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A157" s="124"/>
-      <c r="B157" s="272"/>
+      <c r="B157" s="254"/>
       <c r="C157" s="101" t="s">
         <v>485</v>
       </c>
@@ -9782,7 +9785,7 @@
     </row>
     <row r="158" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A158" s="124"/>
-      <c r="B158" s="272"/>
+      <c r="B158" s="254"/>
       <c r="C158" s="108" t="s">
         <v>487</v>
       </c>
@@ -9796,7 +9799,7 @@
     </row>
     <row r="159" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A159" s="124"/>
-      <c r="B159" s="272"/>
+      <c r="B159" s="254"/>
       <c r="C159" s="101" t="s">
         <v>489</v>
       </c>
@@ -9810,7 +9813,7 @@
     </row>
     <row r="160" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A160" s="124"/>
-      <c r="B160" s="272"/>
+      <c r="B160" s="254"/>
       <c r="C160" s="108" t="s">
         <v>491</v>
       </c>
@@ -9822,7 +9825,7 @@
     </row>
     <row r="161" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A161" s="124"/>
-      <c r="B161" s="254"/>
+      <c r="B161" s="255"/>
       <c r="C161" s="107" t="s">
         <v>493</v>
       </c>
@@ -9863,13 +9866,13 @@
       </c>
     </row>
     <row r="164" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B164" s="316" t="s">
+      <c r="B164" s="216" t="s">
         <v>131</v>
       </c>
-      <c r="C164" s="317">
+      <c r="C164" s="217">
         <v>7</v>
       </c>
-      <c r="D164" s="318" t="s">
+      <c r="D164" s="218" t="s">
         <v>462</v>
       </c>
       <c r="E164" s="25"/>
@@ -9879,7 +9882,7 @@
       <c r="A165" s="124" t="s">
         <v>745</v>
       </c>
-      <c r="B165" s="314" t="s">
+      <c r="B165" s="215" t="s">
         <v>420</v>
       </c>
       <c r="C165" s="115" t="s">
@@ -9895,7 +9898,7 @@
       <c r="A166" s="124" t="s">
         <v>746</v>
       </c>
-      <c r="B166" s="311" t="s">
+      <c r="B166" s="277" t="s">
         <v>762</v>
       </c>
       <c r="C166" s="101" t="s">
@@ -9913,7 +9916,7 @@
       <c r="A167" s="124" t="s">
         <v>702</v>
       </c>
-      <c r="B167" s="312"/>
+      <c r="B167" s="278"/>
       <c r="C167" s="115" t="s">
         <v>504</v>
       </c>
@@ -9927,7 +9930,7 @@
       <c r="A168" s="124" t="s">
         <v>699</v>
       </c>
-      <c r="B168" s="312"/>
+      <c r="B168" s="278"/>
       <c r="C168" s="101" t="s">
         <v>506</v>
       </c>
@@ -9939,7 +9942,7 @@
     </row>
     <row r="169" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A169" s="124"/>
-      <c r="B169" s="312"/>
+      <c r="B169" s="278"/>
       <c r="C169" s="101" t="s">
         <v>506</v>
       </c>
@@ -9951,7 +9954,7 @@
     </row>
     <row r="170" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A170" s="124"/>
-      <c r="B170" s="312"/>
+      <c r="B170" s="278"/>
       <c r="C170" s="101" t="s">
         <v>508</v>
       </c>
@@ -9965,7 +9968,7 @@
       <c r="A171" s="124" t="s">
         <v>701</v>
       </c>
-      <c r="B171" s="312"/>
+      <c r="B171" s="278"/>
       <c r="C171" s="115" t="s">
         <v>509</v>
       </c>
@@ -9977,7 +9980,7 @@
     </row>
     <row r="172" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A172" s="124"/>
-      <c r="B172" s="312"/>
+      <c r="B172" s="278"/>
       <c r="C172" s="101" t="s">
         <v>510</v>
       </c>
@@ -9989,7 +9992,7 @@
     </row>
     <row r="173" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A173" s="124"/>
-      <c r="B173" s="312"/>
+      <c r="B173" s="278"/>
       <c r="C173" s="115" t="s">
         <v>511</v>
       </c>
@@ -10001,7 +10004,7 @@
     </row>
     <row r="174" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A174" s="124"/>
-      <c r="B174" s="312"/>
+      <c r="B174" s="278"/>
       <c r="C174" s="101" t="s">
         <v>512</v>
       </c>
@@ -10013,7 +10016,7 @@
     </row>
     <row r="175" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A175" s="124"/>
-      <c r="B175" s="312"/>
+      <c r="B175" s="278"/>
       <c r="C175" s="115" t="s">
         <v>513</v>
       </c>
@@ -10025,7 +10028,7 @@
     </row>
     <row r="176" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A176" s="124"/>
-      <c r="B176" s="312"/>
+      <c r="B176" s="278"/>
       <c r="C176" s="101" t="s">
         <v>514</v>
       </c>
@@ -10037,7 +10040,7 @@
     </row>
     <row r="177" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A177" s="124"/>
-      <c r="B177" s="312"/>
+      <c r="B177" s="278"/>
       <c r="C177" s="115" t="s">
         <v>516</v>
       </c>
@@ -10049,7 +10052,7 @@
     </row>
     <row r="178" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A178" s="124"/>
-      <c r="B178" s="312"/>
+      <c r="B178" s="278"/>
       <c r="C178" s="101" t="s">
         <v>517</v>
       </c>
@@ -10061,7 +10064,7 @@
     </row>
     <row r="179" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A179" s="124"/>
-      <c r="B179" s="312"/>
+      <c r="B179" s="278"/>
       <c r="C179" s="115" t="s">
         <v>518</v>
       </c>
@@ -10073,7 +10076,7 @@
     </row>
     <row r="180" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A180" s="124"/>
-      <c r="B180" s="312"/>
+      <c r="B180" s="278"/>
       <c r="C180" s="101" t="s">
         <v>621</v>
       </c>
@@ -10085,7 +10088,7 @@
     </row>
     <row r="181" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A181" s="124"/>
-      <c r="B181" s="315"/>
+      <c r="B181" s="279"/>
       <c r="C181" s="115" t="s">
         <v>622</v>
       </c>
@@ -10136,7 +10139,7 @@
     </row>
     <row r="185" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A185" s="124"/>
-      <c r="B185" s="260" t="s">
+      <c r="B185" s="271" t="s">
         <v>499</v>
       </c>
       <c r="C185" s="6" t="s">
@@ -10150,7 +10153,7 @@
     </row>
     <row r="186" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A186" s="124"/>
-      <c r="B186" s="261"/>
+      <c r="B186" s="272"/>
       <c r="C186" s="6" t="s">
         <v>521</v>
       </c>
@@ -10162,7 +10165,7 @@
     </row>
     <row r="187" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A187" s="124"/>
-      <c r="B187" s="261"/>
+      <c r="B187" s="272"/>
       <c r="C187" s="6" t="s">
         <v>522</v>
       </c>
@@ -10174,7 +10177,7 @@
     </row>
     <row r="188" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A188" s="124"/>
-      <c r="B188" s="261"/>
+      <c r="B188" s="272"/>
       <c r="C188" s="6" t="s">
         <v>523</v>
       </c>
@@ -10186,7 +10189,7 @@
     </row>
     <row r="189" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A189" s="124"/>
-      <c r="B189" s="261"/>
+      <c r="B189" s="272"/>
       <c r="C189" s="6" t="s">
         <v>525</v>
       </c>
@@ -10198,7 +10201,7 @@
     </row>
     <row r="190" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A190" s="124"/>
-      <c r="B190" s="261"/>
+      <c r="B190" s="272"/>
       <c r="C190" s="6" t="s">
         <v>526</v>
       </c>
@@ -10210,7 +10213,7 @@
     </row>
     <row r="191" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A191" s="124"/>
-      <c r="B191" s="261"/>
+      <c r="B191" s="272"/>
       <c r="C191" s="6" t="s">
         <v>528</v>
       </c>
@@ -10220,7 +10223,7 @@
     </row>
     <row r="192" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A192" s="124"/>
-      <c r="B192" s="261"/>
+      <c r="B192" s="272"/>
       <c r="C192" s="6" t="s">
         <v>529</v>
       </c>
@@ -10230,7 +10233,7 @@
     </row>
     <row r="193" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A193" s="124"/>
-      <c r="B193" s="262"/>
+      <c r="B193" s="273"/>
       <c r="C193" s="6" t="s">
         <v>531</v>
       </c>
@@ -10240,7 +10243,7 @@
     </row>
     <row r="194" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A194" s="124"/>
-      <c r="B194" s="260" t="s">
+      <c r="B194" s="271" t="s">
         <v>761</v>
       </c>
       <c r="C194" s="6" t="s">
@@ -10254,7 +10257,7 @@
     </row>
     <row r="195" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A195" s="124"/>
-      <c r="B195" s="261"/>
+      <c r="B195" s="272"/>
       <c r="C195" s="6" t="s">
         <v>533</v>
       </c>
@@ -10266,7 +10269,7 @@
     </row>
     <row r="196" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A196" s="124"/>
-      <c r="B196" s="261"/>
+      <c r="B196" s="272"/>
       <c r="C196" s="6" t="s">
         <v>534</v>
       </c>
@@ -10278,7 +10281,7 @@
     </row>
     <row r="197" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A197" s="124"/>
-      <c r="B197" s="261"/>
+      <c r="B197" s="272"/>
       <c r="C197" s="6" t="s">
         <v>536</v>
       </c>
@@ -10290,7 +10293,7 @@
     </row>
     <row r="198" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A198" s="124"/>
-      <c r="B198" s="261"/>
+      <c r="B198" s="272"/>
       <c r="C198" s="6" t="s">
         <v>537</v>
       </c>
@@ -10302,7 +10305,7 @@
     </row>
     <row r="199" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A199" s="124"/>
-      <c r="B199" s="262"/>
+      <c r="B199" s="273"/>
       <c r="C199" s="6" t="s">
         <v>538</v>
       </c>
@@ -10344,7 +10347,7 @@
     </row>
     <row r="202" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A202" s="124"/>
-      <c r="B202" s="257" t="s">
+      <c r="B202" s="264" t="s">
         <v>420</v>
       </c>
       <c r="C202" s="100" t="s">
@@ -10358,7 +10361,7 @@
     </row>
     <row r="203" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A203" s="124"/>
-      <c r="B203" s="258"/>
+      <c r="B203" s="268"/>
       <c r="C203" s="101" t="s">
         <v>624</v>
       </c>
@@ -10370,7 +10373,7 @@
     </row>
     <row r="204" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A204" s="124"/>
-      <c r="B204" s="258"/>
+      <c r="B204" s="268"/>
       <c r="C204" s="100" t="s">
         <v>625</v>
       </c>
@@ -10382,7 +10385,7 @@
     </row>
     <row r="205" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A205" s="124"/>
-      <c r="B205" s="259"/>
+      <c r="B205" s="265"/>
       <c r="C205" s="100" t="s">
         <v>626</v>
       </c>
@@ -10394,7 +10397,7 @@
     </row>
     <row r="206" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A206" s="124"/>
-      <c r="B206" s="257" t="s">
+      <c r="B206" s="264" t="s">
         <v>524</v>
       </c>
       <c r="C206" s="100" t="s">
@@ -10408,7 +10411,7 @@
     </row>
     <row r="207" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A207" s="124"/>
-      <c r="B207" s="259"/>
+      <c r="B207" s="265"/>
       <c r="C207" s="100" t="s">
         <v>628</v>
       </c>
@@ -10420,7 +10423,7 @@
     </row>
     <row r="208" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A208" s="124"/>
-      <c r="B208" s="257" t="s">
+      <c r="B208" s="264" t="s">
         <v>527</v>
       </c>
       <c r="C208" s="100" t="s">
@@ -10438,7 +10441,7 @@
     </row>
     <row r="209" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A209" s="124"/>
-      <c r="B209" s="259"/>
+      <c r="B209" s="265"/>
       <c r="C209" s="100" t="s">
         <v>630</v>
       </c>
@@ -10454,7 +10457,7 @@
     </row>
     <row r="210" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A210" s="124"/>
-      <c r="B210" s="268" t="s">
+      <c r="B210" s="266" t="s">
         <v>530</v>
       </c>
       <c r="C210" s="100" t="s">
@@ -10468,7 +10471,7 @@
     </row>
     <row r="211" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A211" s="124"/>
-      <c r="B211" s="267"/>
+      <c r="B211" s="263"/>
       <c r="C211" s="101" t="s">
         <v>632</v>
       </c>
@@ -10480,7 +10483,7 @@
     </row>
     <row r="212" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A212" s="124"/>
-      <c r="B212" s="267"/>
+      <c r="B212" s="263"/>
       <c r="C212" s="100" t="s">
         <v>633</v>
       </c>
@@ -10496,7 +10499,7 @@
     </row>
     <row r="213" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A213" s="124"/>
-      <c r="B213" s="267"/>
+      <c r="B213" s="263"/>
       <c r="C213" s="100" t="s">
         <v>634</v>
       </c>
@@ -10512,7 +10515,7 @@
     </row>
     <row r="214" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A214" s="124"/>
-      <c r="B214" s="268" t="s">
+      <c r="B214" s="266" t="s">
         <v>535</v>
       </c>
       <c r="C214" s="100" t="s">
@@ -10530,7 +10533,7 @@
     </row>
     <row r="215" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A215" s="124"/>
-      <c r="B215" s="267"/>
+      <c r="B215" s="263"/>
       <c r="C215" s="100" t="s">
         <v>636</v>
       </c>
@@ -10546,7 +10549,7 @@
     </row>
     <row r="216" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A216" s="124"/>
-      <c r="B216" s="269"/>
+      <c r="B216" s="267"/>
       <c r="C216" s="100" t="s">
         <v>637</v>
       </c>
@@ -10562,7 +10565,7 @@
     </row>
     <row r="217" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A217" s="124"/>
-      <c r="B217" s="267" t="s">
+      <c r="B217" s="263" t="s">
         <v>539</v>
       </c>
       <c r="C217" s="100" t="s">
@@ -10576,7 +10579,7 @@
     </row>
     <row r="218" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A218" s="124"/>
-      <c r="B218" s="267"/>
+      <c r="B218" s="263"/>
       <c r="C218" s="100" t="s">
         <v>639</v>
       </c>
@@ -10592,7 +10595,7 @@
     </row>
     <row r="219" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A219" s="124"/>
-      <c r="B219" s="267"/>
+      <c r="B219" s="263"/>
       <c r="C219" s="100" t="s">
         <v>640</v>
       </c>
@@ -10604,7 +10607,7 @@
     </row>
     <row r="220" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A220" s="124"/>
-      <c r="B220" s="267"/>
+      <c r="B220" s="263"/>
       <c r="C220" s="100" t="s">
         <v>641</v>
       </c>
@@ -10620,7 +10623,7 @@
     </row>
     <row r="221" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A221" s="124"/>
-      <c r="B221" s="267"/>
+      <c r="B221" s="263"/>
       <c r="C221" s="100" t="s">
         <v>642</v>
       </c>
@@ -10632,7 +10635,7 @@
     </row>
     <row r="222" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A222" s="124"/>
-      <c r="B222" s="268" t="s">
+      <c r="B222" s="266" t="s">
         <v>540</v>
       </c>
       <c r="C222" s="100" t="s">
@@ -10646,7 +10649,7 @@
     </row>
     <row r="223" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A223" s="124"/>
-      <c r="B223" s="269"/>
+      <c r="B223" s="267"/>
       <c r="C223" s="100" t="s">
         <v>644</v>
       </c>
@@ -10662,7 +10665,7 @@
     </row>
     <row r="224" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A224" s="124"/>
-      <c r="B224" s="267" t="s">
+      <c r="B224" s="263" t="s">
         <v>541</v>
       </c>
       <c r="C224" s="100" t="s">
@@ -10678,7 +10681,7 @@
     </row>
     <row r="225" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A225" s="124"/>
-      <c r="B225" s="267"/>
+      <c r="B225" s="263"/>
       <c r="C225" s="100" t="s">
         <v>646</v>
       </c>
@@ -10694,7 +10697,7 @@
       <c r="A226" s="124" t="s">
         <v>734</v>
       </c>
-      <c r="B226" s="267"/>
+      <c r="B226" s="263"/>
       <c r="C226" s="100" t="s">
         <v>647</v>
       </c>
@@ -10706,7 +10709,7 @@
     </row>
     <row r="227" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A227" s="124"/>
-      <c r="B227" s="267"/>
+      <c r="B227" s="263"/>
       <c r="C227" s="100" t="s">
         <v>648</v>
       </c>
@@ -10718,7 +10721,7 @@
     </row>
     <row r="228" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A228" s="124"/>
-      <c r="B228" s="267"/>
+      <c r="B228" s="263"/>
       <c r="C228" s="100" t="s">
         <v>649</v>
       </c>
@@ -10730,7 +10733,7 @@
     </row>
     <row r="229" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A229" s="124"/>
-      <c r="B229" s="267"/>
+      <c r="B229" s="263"/>
       <c r="C229" s="100" t="s">
         <v>650</v>
       </c>
@@ -10742,7 +10745,7 @@
     </row>
     <row r="230" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A230" s="124"/>
-      <c r="B230" s="267"/>
+      <c r="B230" s="263"/>
       <c r="C230" s="100" t="s">
         <v>651</v>
       </c>
@@ -10759,24 +10762,17 @@
     </row>
   </sheetData>
   <mergeCells count="45">
-    <mergeCell ref="A148:A150"/>
-    <mergeCell ref="B147:B161"/>
-    <mergeCell ref="B67:B71"/>
-    <mergeCell ref="B72:B76"/>
-    <mergeCell ref="B77:B79"/>
-    <mergeCell ref="B81:B85"/>
-    <mergeCell ref="B109:B111"/>
-    <mergeCell ref="B130:B132"/>
-    <mergeCell ref="B133:B134"/>
-    <mergeCell ref="B119:B120"/>
-    <mergeCell ref="B121:B123"/>
-    <mergeCell ref="B224:B230"/>
-    <mergeCell ref="B206:B207"/>
-    <mergeCell ref="B208:B209"/>
-    <mergeCell ref="B210:B213"/>
-    <mergeCell ref="B214:B216"/>
-    <mergeCell ref="B217:B221"/>
-    <mergeCell ref="B222:B223"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B42:B44"/>
+    <mergeCell ref="B46:B50"/>
+    <mergeCell ref="B57:B62"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="B15:B22"/>
+    <mergeCell ref="B23:B28"/>
+    <mergeCell ref="B33:B41"/>
+    <mergeCell ref="B29:B32"/>
+    <mergeCell ref="B5:B13"/>
+    <mergeCell ref="A52:A55"/>
     <mergeCell ref="B202:B205"/>
     <mergeCell ref="D2:D3"/>
     <mergeCell ref="B185:B193"/>
@@ -10793,17 +10789,24 @@
     <mergeCell ref="B63:B66"/>
     <mergeCell ref="B51:B56"/>
     <mergeCell ref="B124:B129"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B42:B44"/>
-    <mergeCell ref="B46:B50"/>
-    <mergeCell ref="B57:B62"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="B15:B22"/>
-    <mergeCell ref="B23:B28"/>
-    <mergeCell ref="B33:B41"/>
-    <mergeCell ref="B29:B32"/>
-    <mergeCell ref="B5:B13"/>
-    <mergeCell ref="A52:A55"/>
+    <mergeCell ref="B224:B230"/>
+    <mergeCell ref="B206:B207"/>
+    <mergeCell ref="B208:B209"/>
+    <mergeCell ref="B210:B213"/>
+    <mergeCell ref="B214:B216"/>
+    <mergeCell ref="B217:B221"/>
+    <mergeCell ref="B222:B223"/>
+    <mergeCell ref="A148:A150"/>
+    <mergeCell ref="B147:B161"/>
+    <mergeCell ref="B67:B71"/>
+    <mergeCell ref="B72:B76"/>
+    <mergeCell ref="B77:B79"/>
+    <mergeCell ref="B81:B85"/>
+    <mergeCell ref="B109:B111"/>
+    <mergeCell ref="B130:B132"/>
+    <mergeCell ref="B133:B134"/>
+    <mergeCell ref="B119:B120"/>
+    <mergeCell ref="B121:B123"/>
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10841,26 +10844,26 @@
       <c r="F1" s="45"/>
     </row>
     <row r="2" spans="1:13" s="1" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="277"/>
-      <c r="B2" s="246"/>
+      <c r="A2" s="285"/>
+      <c r="B2" s="269"/>
       <c r="C2" s="93"/>
-      <c r="D2" s="246" t="s">
+      <c r="D2" s="269" t="s">
         <v>764</v>
       </c>
-      <c r="E2" s="279" t="s">
+      <c r="E2" s="287" t="s">
         <v>765</v>
       </c>
-      <c r="F2" s="246" t="s">
+      <c r="F2" s="269" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="3" spans="1:13" s="1" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="278"/>
-      <c r="B3" s="247"/>
+      <c r="A3" s="286"/>
+      <c r="B3" s="270"/>
       <c r="C3" s="95"/>
-      <c r="D3" s="247"/>
-      <c r="E3" s="280"/>
-      <c r="F3" s="247"/>
+      <c r="D3" s="270"/>
+      <c r="E3" s="288"/>
+      <c r="F3" s="270"/>
     </row>
     <row r="4" spans="1:13" s="1" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="213" t="s">
@@ -10879,7 +10882,7 @@
       <c r="F4" s="5"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="I10" s="274" t="s">
+      <c r="I10" s="282" t="s">
         <v>543</v>
       </c>
       <c r="J10" s="85" t="s">
@@ -10894,7 +10897,7 @@
       <c r="M10" s="86"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="I11" s="275"/>
+      <c r="I11" s="283"/>
       <c r="J11" s="85" t="s">
         <v>544</v>
       </c>
@@ -10907,7 +10910,7 @@
       <c r="M11" s="86"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="I12" s="275"/>
+      <c r="I12" s="283"/>
       <c r="J12" s="85" t="s">
         <v>544</v>
       </c>
@@ -10922,7 +10925,7 @@
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="I13" s="275"/>
+      <c r="I13" s="283"/>
       <c r="J13" s="85" t="s">
         <v>544</v>
       </c>
@@ -10937,7 +10940,7 @@
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="I14" s="275"/>
+      <c r="I14" s="283"/>
       <c r="J14" s="85" t="s">
         <v>544</v>
       </c>
@@ -10952,7 +10955,7 @@
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="I15" s="275"/>
+      <c r="I15" s="283"/>
       <c r="J15" s="85" t="s">
         <v>544</v>
       </c>
@@ -10965,7 +10968,7 @@
       <c r="M15" s="86"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="I16" s="275"/>
+      <c r="I16" s="283"/>
       <c r="J16" s="85" t="s">
         <v>544</v>
       </c>
@@ -10978,7 +10981,7 @@
       <c r="M16" s="86"/>
     </row>
     <row r="17" spans="9:13" x14ac:dyDescent="0.25">
-      <c r="I17" s="275"/>
+      <c r="I17" s="283"/>
       <c r="J17" s="85" t="s">
         <v>544</v>
       </c>
@@ -10991,7 +10994,7 @@
       <c r="M17" s="86"/>
     </row>
     <row r="18" spans="9:13" x14ac:dyDescent="0.25">
-      <c r="I18" s="276"/>
+      <c r="I18" s="284"/>
       <c r="J18" s="85" t="s">
         <v>544</v>
       </c>
@@ -11288,9 +11291,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -11473,19 +11479,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4113C2B3-27D6-4633-AFEF-2A1231D4D6C4}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1E19AA5C-7860-45E3-B68E-E70596DFF7EA}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -11510,9 +11512,10 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1E19AA5C-7860-45E3-B68E-E70596DFF7EA}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4113C2B3-27D6-4633-AFEF-2A1231D4D6C4}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>